--- a/Data/Ontology Data.xlsx
+++ b/Data/Ontology Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinoa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dinoa\Documents\GitHub\PanamenianNestOntology\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$102</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="318">
   <si>
     <t>Nombre</t>
   </si>
@@ -915,6 +918,69 @@
   </si>
   <si>
     <t>Anatidae</t>
+  </si>
+  <si>
+    <t>Gen</t>
+  </si>
+  <si>
+    <t>Especie</t>
+  </si>
+  <si>
+    <t>Nombre Científico</t>
+  </si>
+  <si>
+    <t>Columbina</t>
+  </si>
+  <si>
+    <t>talpacoti</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zenaida</t>
+  </si>
+  <si>
+    <t>macroura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Patagioenas</t>
+  </si>
+  <si>
+    <t>fasciata</t>
+  </si>
+  <si>
+    <t>Columbina minuta</t>
+  </si>
+  <si>
+    <t>Columbina passerina</t>
+  </si>
+  <si>
+    <t>Coccyzus erythropthalmus</t>
+  </si>
+  <si>
+    <t>Crotophaga major</t>
+  </si>
+  <si>
+    <t>Crotophaga sulcirostris</t>
+  </si>
+  <si>
+    <t>Coccycua minuta</t>
+  </si>
+  <si>
+    <t>Piaya cayana</t>
+  </si>
+  <si>
+    <t>Falco sparverius</t>
+  </si>
+  <si>
+    <t>Micrastur ruficollis</t>
+  </si>
+  <si>
+    <t>Falco rufigularis</t>
+  </si>
+  <si>
+    <t>Falco peregrinus</t>
+  </si>
+  <si>
+    <t>Herpetotheres cachinnans</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1154,6 +1220,7 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1475,24 +1542,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1514,8 +1584,17 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1535,8 +1614,18 @@
       <c r="G2" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="I2" s="42" t="s">
+        <v>301</v>
+      </c>
+      <c r="J2" s="42" t="str">
+        <f>H2&amp;" " &amp; I2</f>
+        <v>Columbina talpacoti</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -1556,8 +1645,18 @@
       <c r="G3" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="42" t="s">
+        <v>302</v>
+      </c>
+      <c r="I3" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="J3" s="42" t="str">
+        <f>H3&amp;" " &amp; I3</f>
+        <v xml:space="preserve"> Zenaida macroura</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
@@ -1577,8 +1676,18 @@
       <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="42" t="s">
+        <v>304</v>
+      </c>
+      <c r="I4" t="s">
+        <v>305</v>
+      </c>
+      <c r="J4" t="str">
+        <f>H4&amp;" " &amp; I4</f>
+        <v xml:space="preserve"> Patagioenas fasciata</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>20</v>
       </c>
@@ -1598,8 +1707,19 @@
       <c r="G5" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="str">
+        <f>LEFT(J5,FIND(" ",J5) -1)</f>
+        <v>Columbina</v>
+      </c>
+      <c r="I5" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J5," ",REPT(" ",LEN(J5))),LEN(J5)))</f>
+        <v>minuta</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>23</v>
       </c>
@@ -1619,8 +1739,19 @@
       <c r="G6" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" t="str">
+        <f>LEFT(J6,FIND(" ",J6) -1)</f>
+        <v>Columbina</v>
+      </c>
+      <c r="I6" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J6," ",REPT(" ",LEN(J6))),LEN(J6)))</f>
+        <v>passerina</v>
+      </c>
+      <c r="J6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
@@ -1640,8 +1771,19 @@
       <c r="G7" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" t="str">
+        <f>LEFT(J7,FIND(" ",J7) -1)</f>
+        <v>Coccyzus</v>
+      </c>
+      <c r="I7" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J7," ",REPT(" ",LEN(J7))),LEN(J7)))</f>
+        <v>erythropthalmus</v>
+      </c>
+      <c r="J7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>29</v>
       </c>
@@ -1661,8 +1803,19 @@
       <c r="G8" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="str">
+        <f>LEFT(J8,FIND(" ",J8) -1)</f>
+        <v>Crotophaga</v>
+      </c>
+      <c r="I8" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J8," ",REPT(" ",LEN(J8))),LEN(J8)))</f>
+        <v>major</v>
+      </c>
+      <c r="J8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>33</v>
       </c>
@@ -1682,8 +1835,19 @@
       <c r="G9" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="str">
+        <f>LEFT(J9,FIND(" ",J9) -1)</f>
+        <v>Crotophaga</v>
+      </c>
+      <c r="I9" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J9," ",REPT(" ",LEN(J9))),LEN(J9)))</f>
+        <v>sulcirostris</v>
+      </c>
+      <c r="J9" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>36</v>
       </c>
@@ -1703,8 +1867,19 @@
       <c r="G10" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="str">
+        <f>LEFT(J10,FIND(" ",J10) -1)</f>
+        <v>Coccycua</v>
+      </c>
+      <c r="I10" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J10," ",REPT(" ",LEN(J10))),LEN(J10)))</f>
+        <v>minuta</v>
+      </c>
+      <c r="J10" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
@@ -1724,8 +1899,19 @@
       <c r="G11" s="11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" t="str">
+        <f>LEFT(J11,FIND(" ",J11) -1)</f>
+        <v>Piaya</v>
+      </c>
+      <c r="I11" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J11," ",REPT(" ",LEN(J11))),LEN(J11)))</f>
+        <v>cayana</v>
+      </c>
+      <c r="J11" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>43</v>
       </c>
@@ -1745,8 +1931,19 @@
       <c r="G12" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" t="str">
+        <f>LEFT(J12,FIND(" ",J12) -1)</f>
+        <v>Falco</v>
+      </c>
+      <c r="I12" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J12," ",REPT(" ",LEN(J12))),LEN(J12)))</f>
+        <v>sparverius</v>
+      </c>
+      <c r="J12" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
@@ -1766,8 +1963,19 @@
       <c r="G13" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" t="str">
+        <f>LEFT(J13,FIND(" ",J13) -1)</f>
+        <v>Micrastur</v>
+      </c>
+      <c r="I13" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J13," ",REPT(" ",LEN(J13))),LEN(J13)))</f>
+        <v>ruficollis</v>
+      </c>
+      <c r="J13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>47</v>
       </c>
@@ -1787,8 +1995,19 @@
       <c r="G14" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" t="str">
+        <f>LEFT(J14,FIND(" ",J14) -1)</f>
+        <v>Falco</v>
+      </c>
+      <c r="I14" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J14," ",REPT(" ",LEN(J14))),LEN(J14)))</f>
+        <v>rufigularis</v>
+      </c>
+      <c r="J14" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>50</v>
       </c>
@@ -1808,8 +2027,19 @@
       <c r="G15" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="str">
+        <f>LEFT(J15,FIND(" ",J15) -1)</f>
+        <v>Falco</v>
+      </c>
+      <c r="I15" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J15," ",REPT(" ",LEN(J15))),LEN(J15)))</f>
+        <v>peregrinus</v>
+      </c>
+      <c r="J15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>54</v>
       </c>
@@ -1829,8 +2059,19 @@
       <c r="G16" s="13" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" t="str">
+        <f>LEFT(J16,FIND(" ",J16) -1)</f>
+        <v>Herpetotheres</v>
+      </c>
+      <c r="I16" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J16," ",REPT(" ",LEN(J16))),LEN(J16)))</f>
+        <v>cachinnans</v>
+      </c>
+      <c r="J16" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
@@ -1850,8 +2091,16 @@
       <c r="G17" s="7" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="e">
+        <f>LEFT(J17,FIND(" ",J17) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I17" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J17," ",REPT(" ",LEN(J17))),LEN(J17)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>61</v>
       </c>
@@ -1871,8 +2120,16 @@
       <c r="G18" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="e">
+        <f>LEFT(J18,FIND(" ",J18) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I18" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J18," ",REPT(" ",LEN(J18))),LEN(J18)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>64</v>
       </c>
@@ -1892,8 +2149,16 @@
       <c r="G19" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="e">
+        <f>LEFT(J19,FIND(" ",J19) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I19" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J19," ",REPT(" ",LEN(J19))),LEN(J19)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>66</v>
       </c>
@@ -1913,8 +2178,16 @@
       <c r="G20" s="7" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="e">
+        <f>LEFT(J20,FIND(" ",J20) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I20" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J20," ",REPT(" ",LEN(J20))),LEN(J20)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>68</v>
       </c>
@@ -1934,8 +2207,16 @@
       <c r="G21" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" t="e">
+        <f>LEFT(J21,FIND(" ",J21) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I21" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J21," ",REPT(" ",LEN(J21))),LEN(J21)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>72</v>
       </c>
@@ -1955,8 +2236,16 @@
       <c r="G22" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="e">
+        <f>LEFT(J22,FIND(" ",J22) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I22" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J22," ",REPT(" ",LEN(J22))),LEN(J22)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>76</v>
       </c>
@@ -1976,8 +2265,16 @@
       <c r="G23" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" t="e">
+        <f>LEFT(J23,FIND(" ",J23) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I23" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J23," ",REPT(" ",LEN(J23))),LEN(J23)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>78</v>
       </c>
@@ -1997,8 +2294,16 @@
       <c r="G24" s="5" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" t="e">
+        <f>LEFT(J24,FIND(" ",J24) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I24" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J24," ",REPT(" ",LEN(J24))),LEN(J24)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>82</v>
       </c>
@@ -2018,8 +2323,16 @@
       <c r="G25" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" t="e">
+        <f>LEFT(J25,FIND(" ",J25) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I25" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J25," ",REPT(" ",LEN(J25))),LEN(J25)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>85</v>
       </c>
@@ -2039,8 +2352,16 @@
       <c r="G26" s="5" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" t="e">
+        <f>LEFT(J26,FIND(" ",J26) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I26" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J26," ",REPT(" ",LEN(J26))),LEN(J26)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>88</v>
       </c>
@@ -2060,8 +2381,16 @@
       <c r="G27" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" t="e">
+        <f>LEFT(J27,FIND(" ",J27) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I27" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J27," ",REPT(" ",LEN(J27))),LEN(J27)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>91</v>
       </c>
@@ -2081,8 +2410,16 @@
       <c r="G28" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" t="e">
+        <f>LEFT(J28,FIND(" ",J28) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I28" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J28," ",REPT(" ",LEN(J28))),LEN(J28)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>95</v>
       </c>
@@ -2102,8 +2439,16 @@
       <c r="G29" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" t="e">
+        <f>LEFT(J29,FIND(" ",J29) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I29" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J29," ",REPT(" ",LEN(J29))),LEN(J29)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>101</v>
       </c>
@@ -2123,8 +2468,16 @@
       <c r="G30" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" t="e">
+        <f>LEFT(J30,FIND(" ",J30) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I30" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J30," ",REPT(" ",LEN(J30))),LEN(J30)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>102</v>
       </c>
@@ -2144,8 +2497,16 @@
       <c r="G31" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" t="e">
+        <f>LEFT(J31,FIND(" ",J31) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I31" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J31," ",REPT(" ",LEN(J31))),LEN(J31)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>105</v>
       </c>
@@ -2165,8 +2526,16 @@
       <c r="G32" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" t="e">
+        <f>LEFT(J32,FIND(" ",J32) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I32" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J32," ",REPT(" ",LEN(J32))),LEN(J32)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>107</v>
       </c>
@@ -2186,8 +2555,16 @@
       <c r="G33" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" t="e">
+        <f>LEFT(J33,FIND(" ",J33) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I33" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J33," ",REPT(" ",LEN(J33))),LEN(J33)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>109</v>
       </c>
@@ -2207,8 +2584,16 @@
       <c r="G34" s="17" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" t="e">
+        <f>LEFT(J34,FIND(" ",J34) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I34" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J34," ",REPT(" ",LEN(J34))),LEN(J34)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>112</v>
       </c>
@@ -2228,8 +2613,16 @@
       <c r="G35" s="15" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" t="e">
+        <f>LEFT(J35,FIND(" ",J35) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I35" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J35," ",REPT(" ",LEN(J35))),LEN(J35)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>115</v>
       </c>
@@ -2249,8 +2642,16 @@
       <c r="G36" s="15" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" t="e">
+        <f>LEFT(J36,FIND(" ",J36) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I36" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J36," ",REPT(" ",LEN(J36))),LEN(J36)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>120</v>
       </c>
@@ -2270,8 +2671,16 @@
       <c r="G37" s="15" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" t="e">
+        <f>LEFT(J37,FIND(" ",J37) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I37" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J37," ",REPT(" ",LEN(J37))),LEN(J37)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>124</v>
       </c>
@@ -2291,8 +2700,16 @@
       <c r="G38" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" t="e">
+        <f>LEFT(J38,FIND(" ",J38) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I38" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J38," ",REPT(" ",LEN(J38))),LEN(J38)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>128</v>
       </c>
@@ -2312,8 +2729,16 @@
       <c r="G39" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" t="e">
+        <f>LEFT(J39,FIND(" ",J39) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I39" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J39," ",REPT(" ",LEN(J39))),LEN(J39)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>134</v>
       </c>
@@ -2333,8 +2758,16 @@
       <c r="G40" s="19" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" t="e">
+        <f>LEFT(J40,FIND(" ",J40) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I40" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J40," ",REPT(" ",LEN(J40))),LEN(J40)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>137</v>
       </c>
@@ -2354,8 +2787,16 @@
       <c r="G41" s="20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" t="e">
+        <f>LEFT(J41,FIND(" ",J41) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I41" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J41," ",REPT(" ",LEN(J41))),LEN(J41)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>143</v>
       </c>
@@ -2375,8 +2816,16 @@
       <c r="G42" s="20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" t="e">
+        <f>LEFT(J42,FIND(" ",J42) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I42" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J42," ",REPT(" ",LEN(J42))),LEN(J42)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>146</v>
       </c>
@@ -2396,8 +2845,16 @@
       <c r="G43" s="20" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" t="e">
+        <f>LEFT(J43,FIND(" ",J43) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I43" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J43," ",REPT(" ",LEN(J43))),LEN(J43)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>151</v>
       </c>
@@ -2417,8 +2874,16 @@
       <c r="G44" s="20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" t="e">
+        <f>LEFT(J44,FIND(" ",J44) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I44" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J44," ",REPT(" ",LEN(J44))),LEN(J44)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>153</v>
       </c>
@@ -2438,8 +2903,16 @@
       <c r="G45" s="20" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" t="e">
+        <f>LEFT(J45,FIND(" ",J45) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I45" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J45," ",REPT(" ",LEN(J45))),LEN(J45)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="24" t="s">
         <v>156</v>
       </c>
@@ -2459,8 +2932,16 @@
       <c r="G46" s="25" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" t="e">
+        <f>LEFT(J46,FIND(" ",J46) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I46" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J46," ",REPT(" ",LEN(J46))),LEN(J46)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="24" t="s">
         <v>160</v>
       </c>
@@ -2480,8 +2961,16 @@
       <c r="G47" s="25" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" t="e">
+        <f>LEFT(J47,FIND(" ",J47) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I47" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J47," ",REPT(" ",LEN(J47))),LEN(J47)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="24" t="s">
         <v>162</v>
       </c>
@@ -2501,8 +2990,16 @@
       <c r="G48" s="25" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" t="e">
+        <f>LEFT(J48,FIND(" ",J48) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I48" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J48," ",REPT(" ",LEN(J48))),LEN(J48)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
         <v>164</v>
       </c>
@@ -2522,8 +3019,16 @@
       <c r="G49" s="25" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" t="e">
+        <f>LEFT(J49,FIND(" ",J49) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I49" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J49," ",REPT(" ",LEN(J49))),LEN(J49)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>295</v>
       </c>
@@ -2543,8 +3048,16 @@
       <c r="G50" s="25" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" t="e">
+        <f>LEFT(J50,FIND(" ",J50) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I50" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J50," ",REPT(" ",LEN(J50))),LEN(J50)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="27" t="s">
         <v>169</v>
       </c>
@@ -2564,8 +3077,16 @@
       <c r="G51" s="27" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" t="e">
+        <f>LEFT(J51,FIND(" ",J51) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I51" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J51," ",REPT(" ",LEN(J51))),LEN(J51)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="27" t="s">
         <v>174</v>
       </c>
@@ -2585,8 +3106,16 @@
       <c r="G52" s="27" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" t="e">
+        <f>LEFT(J52,FIND(" ",J52) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I52" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J52," ",REPT(" ",LEN(J52))),LEN(J52)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="27" t="s">
         <v>176</v>
       </c>
@@ -2606,8 +3135,16 @@
       <c r="G53" s="27" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" t="e">
+        <f>LEFT(J53,FIND(" ",J53) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I53" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J53," ",REPT(" ",LEN(J53))),LEN(J53)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>178</v>
       </c>
@@ -2627,8 +3164,16 @@
       <c r="G54" s="27" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" t="e">
+        <f>LEFT(J54,FIND(" ",J54) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I54" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J54," ",REPT(" ",LEN(J54))),LEN(J54)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="28" t="s">
         <v>181</v>
       </c>
@@ -2648,8 +3193,16 @@
       <c r="G55" s="28" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" t="e">
+        <f>LEFT(J55,FIND(" ",J55) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I55" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J55," ",REPT(" ",LEN(J55))),LEN(J55)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="28" t="s">
         <v>185</v>
       </c>
@@ -2669,8 +3222,16 @@
       <c r="G56" s="28" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" t="e">
+        <f>LEFT(J56,FIND(" ",J56) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I56" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J56," ",REPT(" ",LEN(J56))),LEN(J56)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="28" t="s">
         <v>189</v>
       </c>
@@ -2690,8 +3251,16 @@
       <c r="G57" s="28" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" t="e">
+        <f>LEFT(J57,FIND(" ",J57) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I57" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J57," ",REPT(" ",LEN(J57))),LEN(J57)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="28" t="s">
         <v>193</v>
       </c>
@@ -2711,8 +3280,16 @@
       <c r="G58" s="28" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" t="e">
+        <f>LEFT(J58,FIND(" ",J58) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I58" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J58," ",REPT(" ",LEN(J58))),LEN(J58)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="28" t="s">
         <v>196</v>
       </c>
@@ -2732,8 +3309,16 @@
       <c r="G59" s="28" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" t="e">
+        <f>LEFT(J59,FIND(" ",J59) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I59" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J59," ",REPT(" ",LEN(J59))),LEN(J59)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>199</v>
       </c>
@@ -2753,8 +3338,16 @@
       <c r="G60" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" t="e">
+        <f>LEFT(J60,FIND(" ",J60) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I60" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J60," ",REPT(" ",LEN(J60))),LEN(J60)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>203</v>
       </c>
@@ -2774,8 +3367,16 @@
       <c r="G61" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" t="e">
+        <f>LEFT(J61,FIND(" ",J61) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I61" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J61," ",REPT(" ",LEN(J61))),LEN(J61)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>205</v>
       </c>
@@ -2795,8 +3396,16 @@
       <c r="G62" s="4" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" t="e">
+        <f>LEFT(J62,FIND(" ",J62) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I62" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J62," ",REPT(" ",LEN(J62))),LEN(J62)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="29" t="s">
         <v>207</v>
       </c>
@@ -2816,8 +3425,16 @@
       <c r="G63" s="29" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" t="e">
+        <f>LEFT(J63,FIND(" ",J63) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I63" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J63," ",REPT(" ",LEN(J63))),LEN(J63)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="29" t="s">
         <v>211</v>
       </c>
@@ -2837,8 +3454,16 @@
       <c r="G64" s="29" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" t="e">
+        <f>LEFT(J64,FIND(" ",J64) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I64" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J64," ",REPT(" ",LEN(J64))),LEN(J64)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="29" t="s">
         <v>214</v>
       </c>
@@ -2858,8 +3483,16 @@
       <c r="G65" s="29" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" t="e">
+        <f>LEFT(J65,FIND(" ",J65) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I65" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J65," ",REPT(" ",LEN(J65))),LEN(J65)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>216</v>
       </c>
@@ -2879,8 +3512,16 @@
       <c r="G66" s="29" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" t="e">
+        <f>LEFT(J66,FIND(" ",J66) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I66" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J66," ",REPT(" ",LEN(J66))),LEN(J66)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="29" t="s">
         <v>218</v>
       </c>
@@ -2900,8 +3541,16 @@
       <c r="G67" s="29" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" t="e">
+        <f>LEFT(J67,FIND(" ",J67) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I67" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J67," ",REPT(" ",LEN(J67))),LEN(J67)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="31" t="s">
         <v>220</v>
       </c>
@@ -2921,8 +3570,16 @@
       <c r="G68" s="31" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" t="e">
+        <f>LEFT(J68,FIND(" ",J68) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I68" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J68," ",REPT(" ",LEN(J68))),LEN(J68)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="32" t="s">
         <v>222</v>
       </c>
@@ -2942,8 +3599,16 @@
       <c r="G69" s="32" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" t="e">
+        <f>LEFT(J69,FIND(" ",J69) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I69" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J69," ",REPT(" ",LEN(J69))),LEN(J69)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>225</v>
       </c>
@@ -2963,8 +3628,16 @@
       <c r="G70" s="32" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" t="e">
+        <f>LEFT(J70,FIND(" ",J70) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I70" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J70," ",REPT(" ",LEN(J70))),LEN(J70)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>68</v>
       </c>
@@ -2984,8 +3657,16 @@
       <c r="G71" s="32" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H71" t="e">
+        <f>LEFT(J71,FIND(" ",J71) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I71" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J71," ",REPT(" ",LEN(J71))),LEN(J71)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>58</v>
       </c>
@@ -3005,8 +3686,16 @@
       <c r="G72" s="32" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H72" t="e">
+        <f>LEFT(J72,FIND(" ",J72) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I72" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J72," ",REPT(" ",LEN(J72))),LEN(J72)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>231</v>
       </c>
@@ -3026,8 +3715,16 @@
       <c r="G73" s="32" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H73" t="e">
+        <f>LEFT(J73,FIND(" ",J73) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I73" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J73," ",REPT(" ",LEN(J73))),LEN(J73)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>232</v>
       </c>
@@ -3047,8 +3744,16 @@
       <c r="G74" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H74" t="e">
+        <f>LEFT(J74,FIND(" ",J74) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I74" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J74," ",REPT(" ",LEN(J74))),LEN(J74)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>235</v>
       </c>
@@ -3068,8 +3773,16 @@
       <c r="G75" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H75" t="e">
+        <f>LEFT(J75,FIND(" ",J75) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I75" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J75," ",REPT(" ",LEN(J75))),LEN(J75)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>237</v>
       </c>
@@ -3089,8 +3802,16 @@
       <c r="G76" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H76" t="e">
+        <f>LEFT(J76,FIND(" ",J76) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I76" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J76," ",REPT(" ",LEN(J76))),LEN(J76)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>240</v>
       </c>
@@ -3110,8 +3831,16 @@
       <c r="G77" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H77" t="e">
+        <f>LEFT(J77,FIND(" ",J77) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I77" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J77," ",REPT(" ",LEN(J77))),LEN(J77)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>242</v>
       </c>
@@ -3131,8 +3860,16 @@
       <c r="G78" s="10" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H78" t="e">
+        <f>LEFT(J78,FIND(" ",J78) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I78" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J78," ",REPT(" ",LEN(J78))),LEN(J78)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="33" t="s">
         <v>244</v>
       </c>
@@ -3152,8 +3889,16 @@
       <c r="G79" s="34" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H79" t="e">
+        <f>LEFT(J79,FIND(" ",J79) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I79" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J79," ",REPT(" ",LEN(J79))),LEN(J79)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
         <v>247</v>
       </c>
@@ -3173,8 +3918,16 @@
       <c r="G80" s="34" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H80" t="e">
+        <f>LEFT(J80,FIND(" ",J80) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I80" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J80," ",REPT(" ",LEN(J80))),LEN(J80)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="33" t="s">
         <v>248</v>
       </c>
@@ -3194,8 +3947,16 @@
       <c r="G81" s="33" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H81" t="e">
+        <f>LEFT(J81,FIND(" ",J81) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I81" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J81," ",REPT(" ",LEN(J81))),LEN(J81)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="33" t="s">
         <v>249</v>
       </c>
@@ -3215,8 +3976,16 @@
       <c r="G82" s="33" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H82" t="e">
+        <f>LEFT(J82,FIND(" ",J82) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I82" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J82," ",REPT(" ",LEN(J82))),LEN(J82)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
         <v>251</v>
       </c>
@@ -3236,8 +4005,16 @@
       <c r="G83" s="33" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H83" t="e">
+        <f>LEFT(J83,FIND(" ",J83) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I83" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J83," ",REPT(" ",LEN(J83))),LEN(J83)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
         <v>252</v>
       </c>
@@ -3257,8 +4034,16 @@
       <c r="G84" s="36" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H84" t="e">
+        <f>LEFT(J84,FIND(" ",J84) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I84" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J84," ",REPT(" ",LEN(J84))),LEN(J84)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="35" t="s">
         <v>256</v>
       </c>
@@ -3278,8 +4063,16 @@
       <c r="G85" s="36" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H85" t="e">
+        <f>LEFT(J85,FIND(" ",J85) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I85" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J85," ",REPT(" ",LEN(J85))),LEN(J85)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
         <v>261</v>
       </c>
@@ -3299,8 +4092,16 @@
       <c r="G86" s="35" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H86" t="e">
+        <f>LEFT(J86,FIND(" ",J86) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I86" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J86," ",REPT(" ",LEN(J86))),LEN(J86)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
         <v>264</v>
       </c>
@@ -3320,8 +4121,16 @@
       <c r="G87" s="35" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H87" t="e">
+        <f>LEFT(J87,FIND(" ",J87) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I87" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J87," ",REPT(" ",LEN(J87))),LEN(J87)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
         <v>267</v>
       </c>
@@ -3341,8 +4150,16 @@
       <c r="G88" s="35" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H88" t="e">
+        <f>LEFT(J88,FIND(" ",J88) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I88" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J88," ",REPT(" ",LEN(J88))),LEN(J88)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
         <v>269</v>
       </c>
@@ -3362,8 +4179,16 @@
       <c r="G89" s="37" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H89" t="e">
+        <f>LEFT(J89,FIND(" ",J89) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I89" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J89," ",REPT(" ",LEN(J89))),LEN(J89)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
         <v>273</v>
       </c>
@@ -3383,8 +4208,16 @@
       <c r="G90" s="37" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H90" t="e">
+        <f>LEFT(J90,FIND(" ",J90) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I90" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J90," ",REPT(" ",LEN(J90))),LEN(J90)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="37" t="s">
         <v>278</v>
       </c>
@@ -3404,8 +4237,16 @@
       <c r="G91" s="37" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H91" t="e">
+        <f>LEFT(J91,FIND(" ",J91) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I91" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J91," ",REPT(" ",LEN(J91))),LEN(J91)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="37" t="s">
         <v>280</v>
       </c>
@@ -3425,8 +4266,16 @@
       <c r="G92" s="37" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H92" t="e">
+        <f>LEFT(J92,FIND(" ",J92) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I92" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J92," ",REPT(" ",LEN(J92))),LEN(J92)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="37" t="s">
         <v>282</v>
       </c>
@@ -3446,8 +4295,16 @@
       <c r="G93" s="37" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H93" t="e">
+        <f>LEFT(J93,FIND(" ",J93) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I93" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J93," ",REPT(" ",LEN(J93))),LEN(J93)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="39" t="s">
         <v>285</v>
       </c>
@@ -3467,8 +4324,16 @@
       <c r="G94" s="39" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H94" t="e">
+        <f>LEFT(J94,FIND(" ",J94) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I94" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J94," ",REPT(" ",LEN(J94))),LEN(J94)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="40" t="s">
         <v>242</v>
       </c>
@@ -3488,8 +4353,16 @@
       <c r="G95" s="40" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H95" t="e">
+        <f>LEFT(J95,FIND(" ",J95) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I95" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J95," ",REPT(" ",LEN(J95))),LEN(J95)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="40" t="s">
         <v>240</v>
       </c>
@@ -3509,8 +4382,16 @@
       <c r="G96" s="40" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H96" t="e">
+        <f>LEFT(J96,FIND(" ",J96) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I96" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J96," ",REPT(" ",LEN(J96))),LEN(J96)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="40" t="s">
         <v>237</v>
       </c>
@@ -3530,8 +4411,16 @@
       <c r="G97" s="40" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H97" t="e">
+        <f>LEFT(J97,FIND(" ",J97) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I97" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J97," ",REPT(" ",LEN(J97))),LEN(J97)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="40" t="s">
         <v>235</v>
       </c>
@@ -3551,8 +4440,16 @@
       <c r="G98" s="40" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H98" t="e">
+        <f>LEFT(J98,FIND(" ",J98) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I98" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J98," ",REPT(" ",LEN(J98))),LEN(J98)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="40" t="s">
         <v>232</v>
       </c>
@@ -3572,8 +4469,16 @@
       <c r="G99" s="40" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H99" t="e">
+        <f>LEFT(J99,FIND(" ",J99) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I99" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J99," ",REPT(" ",LEN(J99))),LEN(J99)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="41" t="s">
         <v>231</v>
       </c>
@@ -3593,8 +4498,16 @@
       <c r="G100" s="41" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H100" t="e">
+        <f>LEFT(J100,FIND(" ",J100) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I100" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J100," ",REPT(" ",LEN(J100))),LEN(J100)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="41" t="s">
         <v>58</v>
       </c>
@@ -3614,8 +4527,16 @@
       <c r="G101" s="41" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H101" t="e">
+        <f>LEFT(J101,FIND(" ",J101) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I101" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J101," ",REPT(" ",LEN(J101))),LEN(J101)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="41" t="s">
         <v>68</v>
       </c>
@@ -3634,6 +4555,14 @@
       </c>
       <c r="G102" s="41" t="s">
         <v>70</v>
+      </c>
+      <c r="H102" t="e">
+        <f>LEFT(J102,FIND(" ",J102) -1)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="I102" t="str">
+        <f>TRIM(RIGHT(SUBSTITUTE(J102," ",REPT(" ",LEN(J102))),LEN(J102)))</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/Data/Ontology Data.xlsx
+++ b/Data/Ontology Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="344">
   <si>
     <t>Nombre</t>
   </si>
@@ -170,9 +170,6 @@
     <t>33-38 cm</t>
   </si>
   <si>
-    <t>Bat falcon</t>
-  </si>
-  <si>
     <t>23-30 cm</t>
   </si>
   <si>
@@ -960,13 +957,115 @@
   </si>
   <si>
     <t>Herpetotheres cachinnans</t>
+  </si>
+  <si>
+    <t>Melanerpes</t>
+  </si>
+  <si>
+    <t>Formicivorus</t>
+  </si>
+  <si>
+    <t>Melanerpes Formicivorus</t>
+  </si>
+  <si>
+    <t>Chloroceryle amazona</t>
+  </si>
+  <si>
+    <t>  Fulica americana</t>
+  </si>
+  <si>
+    <t>cinclus mexicanus</t>
+  </si>
+  <si>
+    <t>Charadriidae</t>
+  </si>
+  <si>
+    <t>  Pluvialis fulva</t>
+  </si>
+  <si>
+    <t>Haematopodidae</t>
+  </si>
+  <si>
+    <t> Haematopus palliatus</t>
+  </si>
+  <si>
+    <t>  Porphyrio martinicus</t>
+  </si>
+  <si>
+    <t> Eudocimus albus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pelecaniformes </t>
+  </si>
+  <si>
+    <t>  Anhinga anhinga</t>
+  </si>
+  <si>
+    <t>Laridae</t>
+  </si>
+  <si>
+    <t>Sterna paradisaea</t>
+  </si>
+  <si>
+    <t>Thraupidae</t>
+  </si>
+  <si>
+    <t>Coereba flaveola</t>
+  </si>
+  <si>
+    <t>Tyto alba</t>
+  </si>
+  <si>
+    <t>Tyto</t>
+  </si>
+  <si>
+    <t>Nystalus radiatus</t>
+  </si>
+  <si>
+    <t>Black falcon</t>
+  </si>
+  <si>
+    <t>Megaceryle alcyon</t>
+  </si>
+  <si>
+    <t>Cracidae</t>
+  </si>
+  <si>
+    <t>Chamaepetes unicolor</t>
+  </si>
+  <si>
+    <t>Coragyps atratus</t>
+  </si>
+  <si>
+    <t> Ciccaba nigrolineata</t>
+  </si>
+  <si>
+    <t>Dendrocygna autumnalis</t>
+  </si>
+  <si>
+    <t> Pittasoma michleri</t>
+  </si>
+  <si>
+    <t> Nycticorax nycticorax</t>
+  </si>
+  <si>
+    <t>Caryothraustes poliogaster</t>
+  </si>
+  <si>
+    <t> Ramphastos ambiguus</t>
+  </si>
+  <si>
+    <t> Trogon melanurus</t>
+  </si>
+  <si>
+    <t>Trogon rufus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -994,6 +1093,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1142,7 +1247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1193,6 +1298,7 @@
     <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1517,7 +1623,7 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,158 +1663,171 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>270</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>271</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="E2" s="37" t="s">
         <v>272</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="F2" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="F2" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="H2" t="e">
-        <f>LEFT(J2,FIND(" ",J2) -1)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I2" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J2," ",REPT(" ",LEN(J2))),LEN(J2)))</f>
-        <v/>
+      <c r="H2" t="s">
+        <v>310</v>
+      </c>
+      <c r="I2" t="s">
+        <v>311</v>
+      </c>
+      <c r="J2" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>207</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>208</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="G3" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="H3" t="e">
-        <f>LEFT(J3,FIND(" ",J3) -1)</f>
-        <v>#VALUE!</v>
+      <c r="H3" t="str">
+        <f t="shared" ref="H2:H13" si="0">LEFT(J3,FIND(" ",J3) -1)</f>
+        <v>Chloroceryle</v>
       </c>
       <c r="I3" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J3," ",REPT(" ",LEN(J3))),LEN(J3)))</f>
-        <v/>
+        <f t="shared" ref="I2:I13" si="1">TRIM(RIGHT(SUBSTITUTE(J3," ",REPT(" ",LEN(J3))),LEN(J3)))</f>
+        <v>amazona</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" t="e">
-        <f>LEFT(J4,FIND(" ",J4) -1)</f>
-        <v>#VALUE!</v>
+        <v>62</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>  Fulica</v>
       </c>
       <c r="I4" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J4," ",REPT(" ",LEN(J4))),LEN(J4)))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>americana</v>
+      </c>
+      <c r="J4" s="42" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F5" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H5" t="e">
-        <f>LEFT(J5,FIND(" ",J5) -1)</f>
-        <v>#VALUE!</v>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>cinclus</v>
       </c>
       <c r="I5" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J5," ",REPT(" ",LEN(J5))),LEN(J5)))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>mexicanus</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>185</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>186</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="28" t="s">
-        <v>188</v>
-      </c>
       <c r="F6" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G6" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="H6" t="e">
-        <f>LEFT(J6,FIND(" ",J6) -1)</f>
-        <v>#VALUE!</v>
+        <v>316</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>  Pluvialis</v>
       </c>
       <c r="I6" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J6," ",REPT(" ",LEN(J6))),LEN(J6)))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>fulva</v>
+      </c>
+      <c r="J6" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1732,189 +1851,207 @@
         <v>42</v>
       </c>
       <c r="H7" t="str">
-        <f>LEFT(J7,FIND(" ",J7) -1)</f>
+        <f t="shared" si="0"/>
         <v>Falco</v>
       </c>
       <c r="I7" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J7," ",REPT(" ",LEN(J7))),LEN(J7)))</f>
+        <f t="shared" si="1"/>
         <v>sparverius</v>
       </c>
       <c r="J7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="B8" s="28" t="s">
         <v>189</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>190</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="28" t="s">
-        <v>192</v>
-      </c>
       <c r="F8" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G8" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="H8" t="e">
-        <f>LEFT(J8,FIND(" ",J8) -1)</f>
-        <v>#VALUE!</v>
+        <v>318</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v> Haematopus</v>
       </c>
       <c r="I8" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J8," ",REPT(" ",LEN(J8))),LEN(J8)))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>palliatus</v>
+      </c>
+      <c r="J8" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>66</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>67</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H9" t="e">
-        <f>LEFT(J9,FIND(" ",J9) -1)</f>
-        <v>#VALUE!</v>
+        <v>62</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>  Porphyrio</v>
       </c>
       <c r="I9" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J9," ",REPT(" ",LEN(J9))),LEN(J9)))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>martinicus</v>
+      </c>
+      <c r="J9" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>73</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="e">
-        <f>LEFT(J10,FIND(" ",J10) -1)</f>
-        <v>#VALUE!</v>
+        <v>74</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v> Eudocimus</v>
       </c>
       <c r="I10" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J10," ",REPT(" ",LEN(J10))),LEN(J10)))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>albus</v>
+      </c>
+      <c r="J10" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" t="e">
-        <f>LEFT(J11,FIND(" ",J11) -1)</f>
-        <v>#VALUE!</v>
+        <v>113</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>  Anhinga</v>
       </c>
       <c r="I11" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J11," ",REPT(" ",LEN(J11))),LEN(J11)))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>anhinga</v>
+      </c>
+      <c r="J11" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E12" s="28" t="s">
-        <v>195</v>
-      </c>
       <c r="F12" s="28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G12" s="28" t="s">
-        <v>184</v>
-      </c>
-      <c r="H12" t="e">
-        <f>LEFT(J12,FIND(" ",J12) -1)</f>
-        <v>#VALUE!</v>
+        <v>324</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>Sterna</v>
       </c>
       <c r="I12" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J12," ",REPT(" ",LEN(J12))),LEN(J12)))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>paradisaea</v>
+      </c>
+      <c r="J12" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>234</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>235</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H13" t="e">
-        <f>LEFT(J13,FIND(" ",J13) -1)</f>
-        <v>#VALUE!</v>
+        <v>326</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>Coereba</v>
       </c>
       <c r="I13" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J13," ",REPT(" ",LEN(J13))),LEN(J13)))</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>flaveola</v>
+      </c>
+      <c r="J13" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1938,10 +2075,10 @@
         <v>8</v>
       </c>
       <c r="H14" s="41" t="s">
+        <v>296</v>
+      </c>
+      <c r="I14" t="s">
         <v>297</v>
-      </c>
-      <c r="I14" t="s">
-        <v>298</v>
       </c>
       <c r="J14" t="str">
         <f>H14&amp;" " &amp; I14</f>
@@ -1950,27 +2087,33 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
+        <v>252</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>253</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>254</v>
       </c>
       <c r="C15" s="35"/>
       <c r="D15" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="E15" s="35" t="s">
+      <c r="F15" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G15" s="36" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>257</v>
+      <c r="H15" s="35" t="s">
+        <v>329</v>
       </c>
       <c r="I15" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J15," ",REPT(" ",LEN(J15))),LEN(J15)))</f>
-        <v/>
+        <f t="shared" ref="I15:I46" si="2">TRIM(RIGHT(SUBSTITUTE(J15," ",REPT(" ",LEN(J15))),LEN(J15)))</f>
+        <v>alba</v>
+      </c>
+      <c r="J15" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1994,56 +2137,59 @@
         <v>42</v>
       </c>
       <c r="H16" t="str">
-        <f>LEFT(J16,FIND(" ",J16) -1)</f>
+        <f t="shared" ref="H16:H47" si="3">LEFT(J16,FIND(" ",J16) -1)</f>
         <v>Micrastur</v>
       </c>
       <c r="I16" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J16," ",REPT(" ",LEN(J16))),LEN(J16)))</f>
+        <f t="shared" si="2"/>
         <v>ruficollis</v>
       </c>
       <c r="J16" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="37" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C17" s="37"/>
       <c r="D17" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="E17" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>268</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" t="e">
-        <f>LEFT(J17,FIND(" ",J17) -1)</f>
-        <v>#VALUE!</v>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v>Nystalus</v>
       </c>
       <c r="I17" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J17," ",REPT(" ",LEN(J17))),LEN(J17)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>radiatus</v>
+      </c>
+      <c r="J17" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>47</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>48</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>32</v>
@@ -2055,44 +2201,47 @@
         <v>42</v>
       </c>
       <c r="H18" t="str">
-        <f>LEFT(J18,FIND(" ",J18) -1)</f>
+        <f t="shared" si="3"/>
         <v>Falco</v>
       </c>
       <c r="I18" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J18," ",REPT(" ",LEN(J18))),LEN(J18)))</f>
+        <f t="shared" si="2"/>
         <v>rufigularis</v>
       </c>
       <c r="J18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>211</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>212</v>
       </c>
       <c r="C19" s="29"/>
       <c r="D19" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F19" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="H19" t="e">
-        <f>LEFT(J19,FIND(" ",J19) -1)</f>
-        <v>#VALUE!</v>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>Megaceryle</v>
       </c>
       <c r="I19" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J19," ",REPT(" ",LEN(J19))),LEN(J19)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>alcyon</v>
+      </c>
+      <c r="J19" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2116,339 +2265,369 @@
         <v>26</v>
       </c>
       <c r="H20" t="str">
-        <f>LEFT(J20,FIND(" ",J20) -1)</f>
+        <f t="shared" si="3"/>
         <v>Coccyzus</v>
       </c>
       <c r="I20" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J20," ",REPT(" ",LEN(J20))),LEN(J20)))</f>
+        <f t="shared" si="2"/>
         <v>erythropthalmus</v>
       </c>
       <c r="J20" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="B21" s="32" t="s">
         <v>225</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>226</v>
       </c>
       <c r="C21" s="32"/>
       <c r="D21" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="E21" s="32" t="s">
-        <v>228</v>
-      </c>
       <c r="F21" s="32" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="H21" t="e">
-        <f>LEFT(J21,FIND(" ",J21) -1)</f>
-        <v>#VALUE!</v>
+        <v>333</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>Chamaepetes</v>
       </c>
       <c r="I21" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J21," ",REPT(" ",LEN(J21))),LEN(J21)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>unicolor</v>
+      </c>
+      <c r="J21" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>146</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>147</v>
       </c>
       <c r="C22" s="20"/>
       <c r="D22" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="E22" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="E22" s="22" t="s">
+      <c r="F22" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G22" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="F22" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="H22" t="e">
-        <f>LEFT(J22,FIND(" ",J22) -1)</f>
-        <v>#VALUE!</v>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>Coragyps</v>
       </c>
       <c r="I22" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J22," ",REPT(" ",LEN(J22))),LEN(J22)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>atratus</v>
+      </c>
+      <c r="J22" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>264</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>265</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="35" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F23" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="G23" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="H23" t="e">
-        <f>LEFT(J23,FIND(" ",J23) -1)</f>
-        <v>#VALUE!</v>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v> Ciccaba</v>
       </c>
       <c r="I23" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J23," ",REPT(" ",LEN(J23))),LEN(J23)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>nigrolineata</v>
+      </c>
+      <c r="J23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>156</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>157</v>
       </c>
       <c r="C24" s="24"/>
       <c r="D24" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>159</v>
-      </c>
       <c r="G24" s="25" t="s">
-        <v>289</v>
-      </c>
-      <c r="H24" t="e">
-        <f>LEFT(J24,FIND(" ",J24) -1)</f>
-        <v>#VALUE!</v>
+        <v>288</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>Dendrocygna</v>
       </c>
       <c r="I24" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J24," ",REPT(" ",LEN(J24))),LEN(J24)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>autumnalis</v>
+      </c>
+      <c r="J24" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>237</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>238</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="H25" t="e">
-        <f>LEFT(J25,FIND(" ",J25) -1)</f>
-        <v>#VALUE!</v>
+        <v>286</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v> Pittasoma</v>
       </c>
       <c r="I25" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J25," ",REPT(" ",LEN(J25))),LEN(J25)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>michleri</v>
+      </c>
+      <c r="J25" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>239</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>240</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F26" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G26" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="H26" t="e">
-        <f>LEFT(J26,FIND(" ",J26) -1)</f>
-        <v>#VALUE!</v>
+        <v>83</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v> Nycticorax</v>
       </c>
       <c r="I26" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J26," ",REPT(" ",LEN(J26))),LEN(J26)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>nycticorax</v>
+      </c>
+      <c r="J26" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F27" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G27" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="H27" t="e">
-        <f>LEFT(J27,FIND(" ",J27) -1)</f>
-        <v>#VALUE!</v>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>Caryothraustes</v>
       </c>
       <c r="I27" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J27," ",REPT(" ",LEN(J27))),LEN(J27)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>poliogaster</v>
+      </c>
+      <c r="J27" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="B28" s="37" t="s">
         <v>266</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>267</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F28" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="G28" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="G28" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="H28" t="e">
-        <f>LEFT(J28,FIND(" ",J28) -1)</f>
-        <v>#VALUE!</v>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v> Ramphastos</v>
       </c>
       <c r="I28" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J28," ",REPT(" ",LEN(J28))),LEN(J28)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>ambiguus</v>
+      </c>
+      <c r="J28" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C29" s="33"/>
       <c r="D29" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F29" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G29" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="G29" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="H29" t="e">
-        <f>LEFT(J29,FIND(" ",J29) -1)</f>
-        <v>#VALUE!</v>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v> Trogon</v>
       </c>
       <c r="I29" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J29," ",REPT(" ",LEN(J29))),LEN(J29)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>melanurus</v>
+      </c>
+      <c r="J29" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="33" t="s">
         <v>246</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>247</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E30" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F30" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="G30" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="H30" t="e">
-        <f>LEFT(J30,FIND(" ",J30) -1)</f>
-        <v>#VALUE!</v>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>Trogon</v>
       </c>
       <c r="I30" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J30," ",REPT(" ",LEN(J30))),LEN(J30)))</f>
-        <v/>
+        <f t="shared" si="2"/>
+        <v>rufus</v>
+      </c>
+      <c r="J30" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B31" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H31" t="e">
-        <f>LEFT(J31,FIND(" ",J31) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J31," ",REPT(" ",LEN(J31))),LEN(J31)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>37</v>
@@ -2461,191 +2640,191 @@
         <v>32</v>
       </c>
       <c r="F32" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>100</v>
-      </c>
       <c r="H32" t="e">
-        <f>LEFT(J32,FIND(" ",J32) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J32," ",REPT(" ",LEN(J32))),LEN(J32)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="29" t="s">
         <v>214</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>215</v>
       </c>
       <c r="C33" s="29"/>
       <c r="D33" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G33" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="G33" s="29" t="s">
-        <v>210</v>
-      </c>
       <c r="H33" t="e">
-        <f>LEFT(J33,FIND(" ",J33) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I33" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J33," ",REPT(" ",LEN(J33))),LEN(J33)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="B34" s="29" t="s">
         <v>216</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>217</v>
       </c>
       <c r="C34" s="29"/>
       <c r="D34" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F34" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="G34" s="29" t="s">
-        <v>210</v>
-      </c>
       <c r="H34" t="e">
-        <f>LEFT(J34,FIND(" ",J34) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I34" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J34," ",REPT(" ",LEN(J34))),LEN(J34)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>79</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H35" t="e">
-        <f>LEFT(J35,FIND(" ",J35) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I35" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J35," ",REPT(" ",LEN(J35))),LEN(J35)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B36" s="35" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="35"/>
       <c r="D36" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="E36" s="35" t="s">
-        <v>263</v>
-      </c>
       <c r="F36" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G36" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="G36" s="35" t="s">
-        <v>252</v>
-      </c>
       <c r="H36" t="e">
-        <f>LEFT(J36,FIND(" ",J36) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I36" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J36," ",REPT(" ",LEN(J36))),LEN(J36)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>103</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F37" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G37" s="17" t="s">
-        <v>100</v>
-      </c>
       <c r="H37" t="e">
-        <f>LEFT(J37,FIND(" ",J37) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I37" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J37," ",REPT(" ",LEN(J37))),LEN(J37)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>86</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H38" t="e">
-        <f>LEFT(J38,FIND(" ",J38) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I38" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J38," ",REPT(" ",LEN(J38))),LEN(J38)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
@@ -2670,246 +2849,246 @@
         <v>8</v>
       </c>
       <c r="H39" t="str">
-        <f>LEFT(J39,FIND(" ",J39) -1)</f>
+        <f t="shared" si="3"/>
         <v>Columbina</v>
       </c>
       <c r="I39" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J39," ",REPT(" ",LEN(J39))),LEN(J39)))</f>
+        <f t="shared" si="2"/>
         <v>passerina</v>
       </c>
       <c r="J39" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>169</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>170</v>
       </c>
       <c r="C40" s="27"/>
       <c r="D40" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E40" s="27" t="s">
         <v>19</v>
       </c>
       <c r="F40" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="G40" s="27" t="s">
-        <v>173</v>
-      </c>
       <c r="H40" t="e">
-        <f>LEFT(J40,FIND(" ",J40) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I40" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J40," ",REPT(" ",LEN(J40))),LEN(J40)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>174</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>175</v>
       </c>
       <c r="C41" s="27"/>
       <c r="D41" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E41" s="27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F41" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G41" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="G41" s="27" t="s">
-        <v>173</v>
-      </c>
       <c r="H41" t="e">
-        <f>LEFT(J41,FIND(" ",J41) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I41" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J41," ",REPT(" ",LEN(J41))),LEN(J41)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="36" t="s">
         <v>258</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>259</v>
       </c>
       <c r="C42" s="35"/>
       <c r="D42" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F42" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G42" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="G42" s="35" t="s">
-        <v>252</v>
-      </c>
       <c r="H42" t="e">
-        <f>LEFT(J42,FIND(" ",J42) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I42" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J42," ",REPT(" ",LEN(J42))),LEN(J42)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B43" s="32" t="s">
         <v>44</v>
       </c>
       <c r="C43" s="32"/>
       <c r="D43" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E43" s="32" t="s">
         <v>32</v>
       </c>
       <c r="F43" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="G43" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="G43" s="32" t="s">
-        <v>224</v>
-      </c>
       <c r="H43" t="e">
-        <f>LEFT(J43,FIND(" ",J43) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I43" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J43," ",REPT(" ",LEN(J43))),LEN(J43)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B44" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E44" s="28" t="s">
         <v>32</v>
       </c>
       <c r="F44" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G44" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="G44" s="28" t="s">
-        <v>184</v>
-      </c>
       <c r="H44" t="e">
-        <f>LEFT(J44,FIND(" ",J44) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I44" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J44," ",REPT(" ",LEN(J44))),LEN(J44)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="24" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="24"/>
       <c r="D45" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F45" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G45" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H45" t="e">
-        <f>LEFT(J45,FIND(" ",J45) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I45" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J45," ",REPT(" ",LEN(J45))),LEN(J45)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C46" s="33"/>
       <c r="D46" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E46" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F46" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G46" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="G46" s="33" t="s">
-        <v>243</v>
-      </c>
       <c r="H46" t="e">
-        <f>LEFT(J46,FIND(" ",J46) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I46" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J46," ",REPT(" ",LEN(J46))),LEN(J46)))</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C47" s="37"/>
       <c r="D47" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E47" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F47" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G47" s="37" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H47" t="e">
-        <f>LEFT(J47,FIND(" ",J47) -1)</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I47" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J47," ",REPT(" ",LEN(J47))),LEN(J47)))</f>
+        <f t="shared" ref="I47:I78" si="4">TRIM(RIGHT(SUBSTITUTE(J47," ",REPT(" ",LEN(J47))),LEN(J47)))</f>
         <v/>
       </c>
     </row>
@@ -2934,43 +3113,43 @@
         <v>26</v>
       </c>
       <c r="H48" t="str">
-        <f>LEFT(J48,FIND(" ",J48) -1)</f>
+        <f t="shared" ref="H48:H64" si="5">LEFT(J48,FIND(" ",J48) -1)</f>
         <v>Crotophaga</v>
       </c>
       <c r="I48" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J48," ",REPT(" ",LEN(J48))),LEN(J48)))</f>
+        <f t="shared" si="4"/>
         <v>major</v>
       </c>
       <c r="J48" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C49" s="33"/>
       <c r="D49" s="33" t="s">
         <v>28</v>
       </c>
       <c r="E49" s="33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G49" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="G49" s="34" t="s">
-        <v>243</v>
-      </c>
       <c r="H49" t="e">
-        <f>LEFT(J49,FIND(" ",J49) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I49" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J49," ",REPT(" ",LEN(J49))),LEN(J49)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -2995,117 +3174,117 @@
         <v>26</v>
       </c>
       <c r="H50" t="str">
-        <f>LEFT(J50,FIND(" ",J50) -1)</f>
+        <f t="shared" si="5"/>
         <v>Crotophaga</v>
       </c>
       <c r="I50" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J50," ",REPT(" ",LEN(J50))),LEN(J50)))</f>
+        <f t="shared" si="4"/>
         <v>sulcirostris</v>
       </c>
       <c r="J50" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="20" t="s">
         <v>137</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>138</v>
       </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="F51" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="G51" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G51" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="H51" t="e">
-        <f>LEFT(J51,FIND(" ",J51) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I51" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J51," ",REPT(" ",LEN(J51))),LEN(J51)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>199</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>200</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G52" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="H52" t="e">
-        <f>LEFT(J52,FIND(" ",J52) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I52" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J52," ",REPT(" ",LEN(J52))),LEN(J52)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" s="33"/>
       <c r="D53" s="34" t="s">
         <v>28</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F53" s="34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G53" s="34" t="s">
         <v>242</v>
       </c>
-      <c r="G53" s="34" t="s">
-        <v>243</v>
-      </c>
       <c r="H53" t="e">
-        <f>LEFT(J53,FIND(" ",J53) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I53" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J53," ",REPT(" ",LEN(J53))),LEN(J53)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>54</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>55</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12" t="s">
         <v>28</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>41</v>
@@ -3114,130 +3293,130 @@
         <v>42</v>
       </c>
       <c r="H54" t="str">
-        <f>LEFT(J54,FIND(" ",J54) -1)</f>
+        <f t="shared" si="5"/>
         <v>Herpetotheres</v>
       </c>
       <c r="I54" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J54," ",REPT(" ",LEN(J54))),LEN(J54)))</f>
+        <f t="shared" si="4"/>
         <v>cachinnans</v>
       </c>
       <c r="J54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H55" t="e">
-        <f>LEFT(J55,FIND(" ",J55) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I55" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J55," ",REPT(" ",LEN(J55))),LEN(J55)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="B56" s="27" t="s">
         <v>176</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>177</v>
       </c>
       <c r="C56" s="27"/>
       <c r="D56" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E56" s="27" t="s">
         <v>12</v>
       </c>
       <c r="F56" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="G56" s="27" t="s">
-        <v>173</v>
-      </c>
       <c r="H56" t="e">
-        <f>LEFT(J56,FIND(" ",J56) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I56" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J56," ",REPT(" ",LEN(J56))),LEN(J56)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="24" t="s">
         <v>162</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>163</v>
       </c>
       <c r="C57" s="24"/>
       <c r="D57" s="24" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E57" s="25" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H57" t="e">
-        <f>LEFT(J57,FIND(" ",J57) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I57" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J57," ",REPT(" ",LEN(J57))),LEN(J57)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H58" t="e">
-        <f>LEFT(J58,FIND(" ",J58) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I58" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J58," ",REPT(" ",LEN(J58))),LEN(J58)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3262,159 +3441,159 @@
         <v>26</v>
       </c>
       <c r="H59" t="str">
-        <f>LEFT(J59,FIND(" ",J59) -1)</f>
+        <f t="shared" si="5"/>
         <v>Coccycua</v>
       </c>
       <c r="I59" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J59," ",REPT(" ",LEN(J59))),LEN(J59)))</f>
+        <f t="shared" si="4"/>
         <v>minuta</v>
       </c>
       <c r="J59" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" s="18" t="s">
         <v>134</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>135</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G60" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="G60" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="H60" t="e">
-        <f>LEFT(J60,FIND(" ",J60) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I60" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J60," ",REPT(" ",LEN(J60))),LEN(J60)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="F61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G61" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>94</v>
-      </c>
       <c r="H61" t="e">
-        <f>LEFT(J61,FIND(" ",J61) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I61" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J61," ",REPT(" ",LEN(J61))),LEN(J61)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E62" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="G62" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>118</v>
-      </c>
       <c r="H62" t="e">
-        <f>LEFT(J62,FIND(" ",J62) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I62" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J62," ",REPT(" ",LEN(J62))),LEN(J62)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>203</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G63" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="H63" t="e">
-        <f>LEFT(J63,FIND(" ",J63) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I63" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J63," ",REPT(" ",LEN(J63))),LEN(J63)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>105</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>106</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F64" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G64" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G64" s="17" t="s">
-        <v>100</v>
-      </c>
       <c r="H64" t="e">
-        <f>LEFT(J64,FIND(" ",J64) -1)</f>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="I64" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J64," ",REPT(" ",LEN(J64))),LEN(J64)))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
@@ -3439,10 +3618,10 @@
         <v>8</v>
       </c>
       <c r="H65" s="41" t="s">
+        <v>294</v>
+      </c>
+      <c r="I65" s="41" t="s">
         <v>295</v>
-      </c>
-      <c r="I65" s="41" t="s">
-        <v>296</v>
       </c>
       <c r="J65" s="41" t="str">
         <f>H65&amp;" " &amp; I65</f>
@@ -3451,162 +3630,162 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="24" t="s">
         <v>164</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>165</v>
       </c>
       <c r="C66" s="24"/>
       <c r="D66" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E66" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G66" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H66" t="e">
-        <f>LEFT(J66,FIND(" ",J66) -1)</f>
+        <f t="shared" ref="H66:H79" si="6">LEFT(J66,FIND(" ",J66) -1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I66" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J66," ",REPT(" ",LEN(J66))),LEN(J66)))</f>
+        <f t="shared" ref="I66:I79" si="7">TRIM(RIGHT(SUBSTITUTE(J66," ",REPT(" ",LEN(J66))),LEN(J66)))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="14" t="s">
         <v>120</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>121</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H67" t="e">
-        <f>LEFT(J67,FIND(" ",J67) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I67" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J67," ",REPT(" ",LEN(J67))),LEN(J67)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="25" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B68" s="24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C68" s="24"/>
       <c r="D68" s="24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E68" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H68" t="e">
-        <f>LEFT(J68,FIND(" ",J68) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I68" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J68," ",REPT(" ",LEN(J68))),LEN(J68)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B69" s="27" t="s">
         <v>178</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>179</v>
       </c>
       <c r="C69" s="27"/>
       <c r="D69" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E69" s="27" t="s">
         <v>32</v>
       </c>
       <c r="F69" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="27" t="s">
         <v>172</v>
       </c>
-      <c r="G69" s="27" t="s">
-        <v>173</v>
-      </c>
       <c r="H69" t="e">
-        <f>LEFT(J69,FIND(" ",J69) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I69" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J69," ",REPT(" ",LEN(J69))),LEN(J69)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F70" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G70" s="17" t="s">
-        <v>100</v>
-      </c>
       <c r="H70" t="e">
-        <f>LEFT(J70,FIND(" ",J70) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I70" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J70," ",REPT(" ",LEN(J70))),LEN(J70)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>50</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>51</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="12" t="s">
         <v>52</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>53</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>41</v>
@@ -3615,23 +3794,23 @@
         <v>42</v>
       </c>
       <c r="H71" t="str">
-        <f>LEFT(J71,FIND(" ",J71) -1)</f>
+        <f t="shared" si="6"/>
         <v>Falco</v>
       </c>
       <c r="I71" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J71," ",REPT(" ",LEN(J71))),LEN(J71)))</f>
+        <f t="shared" si="7"/>
         <v>peregrinus</v>
       </c>
       <c r="J71" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
@@ -3641,17 +3820,17 @@
         <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H72" t="e">
-        <f>LEFT(J72,FIND(" ",J72) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I72" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J72," ",REPT(" ",LEN(J72))),LEN(J72)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3676,188 +3855,188 @@
         <v>8</v>
       </c>
       <c r="H73" t="str">
-        <f>LEFT(J73,FIND(" ",J73) -1)</f>
+        <f t="shared" si="6"/>
         <v>Columbina</v>
       </c>
       <c r="I73" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J73," ",REPT(" ",LEN(J73))),LEN(J73)))</f>
+        <f t="shared" si="7"/>
         <v>minuta</v>
       </c>
       <c r="J73" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B74" s="28" t="s">
         <v>196</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>197</v>
       </c>
       <c r="C74" s="28"/>
       <c r="D74" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F74" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" s="28" t="s">
         <v>183</v>
       </c>
-      <c r="G74" s="28" t="s">
-        <v>184</v>
-      </c>
       <c r="H74" t="e">
-        <f>LEFT(J74,FIND(" ",J74) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I74" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J74," ",REPT(" ",LEN(J74))),LEN(J74)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="14" t="s">
         <v>128</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>129</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E75" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="E75" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="F75" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H75" t="e">
-        <f>LEFT(J75,FIND(" ",J75) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I75" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J75," ",REPT(" ",LEN(J75))),LEN(J75)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" s="16" t="s">
         <v>109</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>110</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F76" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="G76" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G76" s="17" t="s">
-        <v>100</v>
-      </c>
       <c r="H76" t="e">
-        <f>LEFT(J76,FIND(" ",J76) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I76" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J76," ",REPT(" ",LEN(J76))),LEN(J76)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="39" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" s="39" t="s">
         <v>282</v>
-      </c>
-      <c r="B77" s="39" t="s">
-        <v>283</v>
       </c>
       <c r="C77" s="39"/>
       <c r="D77" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E77" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="F77" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="F77" s="39" t="s">
+      <c r="G77" s="39" t="s">
         <v>285</v>
       </c>
-      <c r="G77" s="39" t="s">
-        <v>286</v>
-      </c>
       <c r="H77" t="e">
-        <f>LEFT(J77,FIND(" ",J77) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I77" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J77," ",REPT(" ",LEN(J77))),LEN(J77)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B78" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C78" s="37"/>
       <c r="D78" s="37" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F78" s="38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G78" s="37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H78" t="e">
-        <f>LEFT(J78,FIND(" ",J78) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I78" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J78," ",REPT(" ",LEN(J78))),LEN(J78)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H79" t="e">
-        <f>LEFT(J79,FIND(" ",J79) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I79" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J79," ",REPT(" ",LEN(J79))),LEN(J79)))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3882,10 +4061,10 @@
         <v>8</v>
       </c>
       <c r="H80" s="41" t="s">
+        <v>292</v>
+      </c>
+      <c r="I80" s="41" t="s">
         <v>293</v>
-      </c>
-      <c r="I80" s="41" t="s">
-        <v>294</v>
       </c>
       <c r="J80" s="41" t="str">
         <f>H80&amp;" " &amp; I80</f>
@@ -3894,146 +4073,146 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="B81" s="29" t="s">
         <v>218</v>
-      </c>
-      <c r="B81" s="29" t="s">
-        <v>219</v>
       </c>
       <c r="C81" s="29"/>
       <c r="D81" s="29" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E81" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F81" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G81" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="G81" s="29" t="s">
-        <v>210</v>
-      </c>
       <c r="H81" t="e">
-        <f>LEFT(J81,FIND(" ",J81) -1)</f>
+        <f t="shared" ref="H81:H91" si="8">LEFT(J81,FIND(" ",J81) -1)</f>
         <v>#VALUE!</v>
       </c>
       <c r="I81" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J81," ",REPT(" ",LEN(J81))),LEN(J81)))</f>
+        <f t="shared" ref="I81:I91" si="9">TRIM(RIGHT(SUBSTITUTE(J81," ",REPT(" ",LEN(J81))),LEN(J81)))</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B82" s="20" t="s">
         <v>153</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>154</v>
       </c>
       <c r="C82" s="20"/>
       <c r="D82" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E82" s="22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F82" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G82" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G82" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="H82" t="e">
-        <f>LEFT(J82,FIND(" ",J82) -1)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I82" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J82," ",REPT(" ",LEN(J82))),LEN(J82)))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>83</v>
       </c>
       <c r="C83" s="4"/>
       <c r="D83" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H83" t="e">
-        <f>LEFT(J83,FIND(" ",J83) -1)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I83" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J83," ",REPT(" ",LEN(J83))),LEN(J83)))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>65</v>
       </c>
       <c r="C84" s="6"/>
       <c r="D84" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>12</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H84" t="e">
-        <f>LEFT(J84,FIND(" ",J84) -1)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I84" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J84," ",REPT(" ",LEN(J84))),LEN(J84)))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B85" s="35" t="s">
         <v>249</v>
-      </c>
-      <c r="B85" s="35" t="s">
-        <v>250</v>
       </c>
       <c r="C85" s="35"/>
       <c r="D85" s="35" t="s">
         <v>28</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F85" s="36" t="s">
+        <v>250</v>
+      </c>
+      <c r="G85" s="36" t="s">
         <v>251</v>
       </c>
-      <c r="G85" s="36" t="s">
-        <v>252</v>
-      </c>
       <c r="H85" t="e">
-        <f>LEFT(J85,FIND(" ",J85) -1)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I85" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J85," ",REPT(" ",LEN(J85))),LEN(J85)))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
@@ -4058,159 +4237,159 @@
         <v>26</v>
       </c>
       <c r="H86" t="str">
-        <f>LEFT(J86,FIND(" ",J86) -1)</f>
+        <f t="shared" si="8"/>
         <v>Piaya</v>
       </c>
       <c r="I86" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J86," ",REPT(" ",LEN(J86))),LEN(J86)))</f>
+        <f t="shared" si="9"/>
         <v>cayana</v>
       </c>
       <c r="J86" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B87" s="31" t="s">
         <v>220</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>221</v>
       </c>
       <c r="C87" s="31"/>
       <c r="D87" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E87" s="31" t="s">
         <v>32</v>
       </c>
       <c r="F87" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G87" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="G87" s="31" t="s">
-        <v>210</v>
-      </c>
       <c r="H87" t="e">
-        <f>LEFT(J87,FIND(" ",J87) -1)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I87" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J87," ",REPT(" ",LEN(J87))),LEN(J87)))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C88" s="6"/>
       <c r="D88" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F88" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="H88" t="e">
-        <f>LEFT(J88,FIND(" ",J88) -1)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I88" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J88," ",REPT(" ",LEN(J88))),LEN(J88)))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B89" s="20" t="s">
         <v>151</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>152</v>
       </c>
       <c r="C89" s="20"/>
       <c r="D89" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="22" t="s">
         <v>139</v>
       </c>
-      <c r="E89" s="22" t="s">
+      <c r="F89" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F89" s="23" t="s">
+      <c r="G89" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G89" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="H89" t="e">
-        <f>LEFT(J89,FIND(" ",J89) -1)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I89" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J89," ",REPT(" ",LEN(J89))),LEN(J89)))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" s="20" t="s">
         <v>143</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>144</v>
       </c>
       <c r="C90" s="20"/>
       <c r="D90" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E90" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="F90" s="20" t="s">
+      <c r="G90" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="G90" s="20" t="s">
-        <v>142</v>
-      </c>
       <c r="H90" t="e">
-        <f>LEFT(J90,FIND(" ",J90) -1)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I90" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J90," ",REPT(" ",LEN(J90))),LEN(J90)))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>202</v>
-      </c>
       <c r="H91" t="e">
-        <f>LEFT(J91,FIND(" ",J91) -1)</f>
+        <f t="shared" si="8"/>
         <v>#VALUE!</v>
       </c>
       <c r="I91" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J91," ",REPT(" ",LEN(J91))),LEN(J91)))</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
     </row>

--- a/Data/Ontology Data.xlsx
+++ b/Data/Ontology Data.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaby-\Documents\GitHub\PanamenianNestOntology\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\PanamenianNestOntology\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$91</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="374">
   <si>
     <t>Nombre</t>
   </si>
@@ -299,9 +299,6 @@
     <t>Podicipedidae</t>
   </si>
   <si>
-    <t>Pied billed grebe</t>
-  </si>
-  <si>
     <t>35 cm</t>
   </si>
   <si>
@@ -353,9 +350,6 @@
     <t>18 cm</t>
   </si>
   <si>
-    <t>Red lored amazon</t>
-  </si>
-  <si>
     <t xml:space="preserve">32-35 cm </t>
   </si>
   <si>
@@ -410,9 +404,6 @@
     <t>Sulidae</t>
   </si>
   <si>
-    <t>Red footed booby</t>
-  </si>
-  <si>
     <t>70 cm</t>
   </si>
   <si>
@@ -860,9 +851,6 @@
     <t>Red-headed Barbet</t>
   </si>
   <si>
-    <t>Capitonidae</t>
-  </si>
-  <si>
     <t>Barred Puffbird</t>
   </si>
   <si>
@@ -1059,13 +1047,115 @@
   </si>
   <si>
     <t>Trogon rufus</t>
+  </si>
+  <si>
+    <t>Eubucco bourcierii</t>
+  </si>
+  <si>
+    <t>Platalea ajaja</t>
+  </si>
+  <si>
+    <t>Baryphthengus martii</t>
+  </si>
+  <si>
+    <t>Rostrhamus sociabilis</t>
+  </si>
+  <si>
+    <t>Egretta thula</t>
+  </si>
+  <si>
+    <t>Porzana carolina</t>
+  </si>
+  <si>
+    <t>Pulsatrix perspicillata</t>
+  </si>
+  <si>
+    <t>Eurypyga helias</t>
+  </si>
+  <si>
+    <t>Heliornis fulica</t>
+  </si>
+  <si>
+    <t>Accipiter superciliosus</t>
+  </si>
+  <si>
+    <t>Pseudastur albicollis</t>
+  </si>
+  <si>
+    <t>Mycteria americana</t>
+  </si>
+  <si>
+    <t>Eurypygiformes</t>
+  </si>
+  <si>
+    <t>Eurypygidae</t>
+  </si>
+  <si>
+    <t>Momotidae</t>
+  </si>
+  <si>
+    <t>Phaethon aethereus</t>
+  </si>
+  <si>
+    <t>Amazona autumnalis</t>
+  </si>
+  <si>
+    <t>Sula sula</t>
+  </si>
+  <si>
+    <t>Red-footed booby</t>
+  </si>
+  <si>
+    <t>Red-lored amazon</t>
+  </si>
+  <si>
+    <t>Stercorarius pomarinus</t>
+  </si>
+  <si>
+    <t>Stercorariidae</t>
+  </si>
+  <si>
+    <t>Pied-billed grebe</t>
+  </si>
+  <si>
+    <t>Podilymbus podiceps</t>
+  </si>
+  <si>
+    <t>Hydrobates castro</t>
+  </si>
+  <si>
+    <t>Fregata magnificens</t>
+  </si>
+  <si>
+    <t>Ciconia maguari</t>
+  </si>
+  <si>
+    <t>Amazona farinosa</t>
+  </si>
+  <si>
+    <t>Cairina moschata</t>
+  </si>
+  <si>
+    <t>Phalacrocorax brasilianus</t>
+  </si>
+  <si>
+    <t>Spatula clypeata</t>
+  </si>
+  <si>
+    <t>Steatornis caripensis</t>
+  </si>
+  <si>
+    <t>Steatornithidae</t>
+  </si>
+  <si>
+    <t>Brotogeris jugularis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1099,6 +1189,21 @@
       <color rgb="FF000000"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="23">
@@ -1247,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1267,7 +1372,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1299,6 +1403,37 @@
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1307,8 +1442,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6699"/>
       <color rgb="FFCC66FF"/>
-      <color rgb="FFFF6699"/>
       <color rgb="FFFF5050"/>
     </mruColors>
   </colors>
@@ -1619,14 +1754,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
+      <selection activeCell="E60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1663,75 +1798,75 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="36" t="s">
         <v>269</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="F2" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="G2" s="37" t="s">
-        <v>273</v>
-      </c>
       <c r="H2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="I2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="J2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>209</v>
-      </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H2:H13" si="0">LEFT(J3,FIND(" ",J3) -1)</f>
+        <f t="shared" ref="H3:H13" si="0">LEFT(J3,FIND(" ",J3) -1)</f>
         <v>Chloroceryle</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I2:I13" si="1">TRIM(RIGHT(SUBSTITUTE(J3," ",REPT(" ",LEN(J3))),LEN(J3)))</f>
+        <f t="shared" ref="I3:I13" si="1">TRIM(RIGHT(SUBSTITUTE(J3," ",REPT(" ",LEN(J3))),LEN(J3)))</f>
         <v>amazona</v>
       </c>
-      <c r="J3" s="29" t="s">
-        <v>313</v>
+      <c r="J3" s="28" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1762,13 +1897,13 @@
         <f t="shared" si="1"/>
         <v>americana</v>
       </c>
-      <c r="J4" s="42" t="s">
-        <v>314</v>
+      <c r="J4" s="41" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>10</v>
@@ -1778,13 +1913,13 @@
         <v>58</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -1795,28 +1930,28 @@
         <v>mexicanus</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28" t="s">
-        <v>186</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>316</v>
+      <c r="F6" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>312</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -1827,7 +1962,7 @@
         <v>fulva</v>
       </c>
       <c r="J6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1859,28 +1994,28 @@
         <v>sparverius</v>
       </c>
       <c r="J7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>188</v>
       </c>
-      <c r="B8" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="F8" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>318</v>
+      <c r="F8" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>314</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -1891,7 +2026,7 @@
         <v>palliatus</v>
       </c>
       <c r="J8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1923,7 +2058,7 @@
         <v>martinicus</v>
       </c>
       <c r="J9" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1955,15 +2090,15 @@
         <v>albus</v>
       </c>
       <c r="J10" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="14" t="s">
@@ -1973,10 +2108,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1987,28 +2122,28 @@
         <v>anhinga</v>
       </c>
       <c r="J11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28" t="s">
-        <v>193</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="28" t="s">
-        <v>324</v>
+      <c r="A12" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>320</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -2019,28 +2154,28 @@
         <v>paradisaea</v>
       </c>
       <c r="J12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -2051,7 +2186,7 @@
         <v>flaveola</v>
       </c>
       <c r="J13" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2074,11 +2209,11 @@
       <c r="G14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="41" t="s">
-        <v>296</v>
+      <c r="H14" s="40" t="s">
+        <v>292</v>
       </c>
       <c r="I14" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="J14" t="str">
         <f>H14&amp;" " &amp; I14</f>
@@ -2086,34 +2221,34 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>252</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="F15" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G15" s="35" t="s">
         <v>253</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="E15" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>256</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>329</v>
+      <c r="H15" s="34" t="s">
+        <v>325</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" ref="I15:I46" si="2">TRIM(RIGHT(SUBSTITUTE(J15," ",REPT(" ",LEN(J15))),LEN(J15)))</f>
         <v>alba</v>
       </c>
       <c r="J15" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2145,28 +2280,28 @@
         <v>ruficollis</v>
       </c>
       <c r="J16" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>278</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>280</v>
+      <c r="A17" s="36" t="s">
+        <v>274</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36" t="s">
+        <v>275</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>276</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -2177,12 +2312,12 @@
         <v>radiatus</v>
       </c>
       <c r="J17" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>47</v>
@@ -2209,28 +2344,28 @@
         <v>rufigularis</v>
       </c>
       <c r="J18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>211</v>
-      </c>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>191</v>
-      </c>
-      <c r="F19" s="29" t="s">
+      <c r="A19" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="C19" s="28"/>
+      <c r="D19" s="28" t="s">
         <v>209</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>206</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="3"/>
@@ -2241,7 +2376,7 @@
         <v>alcyon</v>
       </c>
       <c r="J19" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2273,28 +2408,28 @@
         <v>erythropthalmus</v>
       </c>
       <c r="J20" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="31" t="s">
         <v>224</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32" t="s">
-        <v>226</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="G21" s="32" t="s">
-        <v>333</v>
+      <c r="F21" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G21" s="31" t="s">
+        <v>329</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -2305,28 +2440,28 @@
         <v>unicolor</v>
       </c>
       <c r="J21" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="E22" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="F22" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>146</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>149</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
@@ -2337,28 +2472,28 @@
         <v>atratus</v>
       </c>
       <c r="J22" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35" t="s">
+      <c r="A23" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="G23" s="35" t="s">
-        <v>251</v>
+      <c r="E23" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>248</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
@@ -2369,28 +2504,28 @@
         <v>nigrolineata</v>
       </c>
       <c r="J23" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="B24" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>288</v>
+      <c r="G24" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
@@ -2401,28 +2536,28 @@
         <v>autumnalis</v>
       </c>
       <c r="J24" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>55</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -2433,27 +2568,27 @@
         <v>michleri</v>
       </c>
       <c r="J25" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40" t="s">
+      <c r="A26" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E26" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="F26" s="40" t="s">
+      <c r="E26" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="F26" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="40" t="s">
+      <c r="G26" s="39" t="s">
         <v>83</v>
       </c>
       <c r="H26" t="str">
@@ -2465,28 +2600,28 @@
         <v>nycticorax</v>
       </c>
       <c r="J26" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
@@ -2497,28 +2632,28 @@
         <v>poliogaster</v>
       </c>
       <c r="J27" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="36" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G28" s="36" t="s">
         <v>265</v>
-      </c>
-      <c r="B28" s="37" t="s">
-        <v>266</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="G28" s="37" t="s">
-        <v>268</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="3"/>
@@ -2529,28 +2664,28 @@
         <v>ambiguus</v>
       </c>
       <c r="J28" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33" t="s">
+      <c r="A29" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E29" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>242</v>
+      <c r="E29" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G29" s="32" t="s">
+        <v>239</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="3"/>
@@ -2561,28 +2696,28 @@
         <v>melanurus</v>
       </c>
       <c r="J29" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="33" t="s">
-        <v>245</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>246</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33" t="s">
+      <c r="A30" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="G30" s="33" t="s">
-        <v>242</v>
+      <c r="F30" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" s="32" t="s">
+        <v>239</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
@@ -2593,28 +2728,28 @@
         <v>rufus</v>
       </c>
       <c r="J30" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" s="14"/>
       <c r="D31" s="14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E31" s="14" t="s">
         <v>19</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H31" t="e">
         <f t="shared" si="3"/>
@@ -2627,7 +2762,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" s="16" t="s">
         <v>37</v>
@@ -2640,10 +2775,10 @@
         <v>32</v>
       </c>
       <c r="F32" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="H32" t="e">
         <f t="shared" si="3"/>
@@ -2655,24 +2790,24 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B33" s="29" t="s">
-        <v>214</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E33" s="29" t="s">
+      <c r="A33" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="G33" s="29" t="s">
-        <v>209</v>
+      <c r="F33" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G33" s="28" t="s">
+        <v>206</v>
       </c>
       <c r="H33" t="e">
         <f t="shared" si="3"/>
@@ -2684,24 +2819,24 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
-        <v>215</v>
-      </c>
-      <c r="B34" s="29" t="s">
-        <v>216</v>
-      </c>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="29" t="s">
+      <c r="A34" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E34" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="G34" s="29" t="s">
-        <v>209</v>
+      <c r="F34" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="G34" s="28" t="s">
+        <v>206</v>
       </c>
       <c r="H34" t="e">
         <f t="shared" si="3"/>
@@ -2742,24 +2877,24 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="B36" s="35" t="s">
+      <c r="A36" s="34" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="E36" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="F36" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>251</v>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34" t="s">
+        <v>258</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>259</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>248</v>
       </c>
       <c r="H36" t="e">
         <f t="shared" si="3"/>
@@ -2772,23 +2907,23 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>101</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>102</v>
       </c>
       <c r="C37" s="16"/>
       <c r="D37" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>55</v>
       </c>
       <c r="F37" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="17" t="s">
         <v>98</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>99</v>
       </c>
       <c r="H37" t="e">
         <f t="shared" si="3"/>
@@ -2857,28 +2992,28 @@
         <v>passerina</v>
       </c>
       <c r="J39" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
+      <c r="A40" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="26" t="s">
         <v>168</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="G40" s="26" t="s">
         <v>169</v>
-      </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27" t="s">
-        <v>170</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>172</v>
       </c>
       <c r="H40" t="e">
         <f t="shared" si="3"/>
@@ -2890,24 +3025,24 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>173</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="27" t="s">
+      <c r="A41" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G41" s="27" t="s">
-        <v>172</v>
+      <c r="F41" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="H41" t="e">
         <f t="shared" si="3"/>
@@ -2919,24 +3054,24 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="B42" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="36" t="s">
-        <v>259</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="F42" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>251</v>
+      <c r="A42" s="34" t="s">
+        <v>254</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" s="34" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>248</v>
       </c>
       <c r="H42" t="e">
         <f t="shared" si="3"/>
@@ -2948,24 +3083,24 @@
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="B43" s="32" t="s">
+      <c r="A43" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B43" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="E43" s="32" t="s">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F43" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="G43" s="32" t="s">
-        <v>223</v>
+      <c r="F43" s="31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G43" s="31" t="s">
+        <v>220</v>
       </c>
       <c r="H43" t="e">
         <f t="shared" si="3"/>
@@ -2977,24 +3112,24 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="27" t="s">
         <v>180</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28" t="s">
-        <v>181</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="28" t="s">
-        <v>183</v>
       </c>
       <c r="H44" t="e">
         <f t="shared" si="3"/>
@@ -3006,24 +3141,24 @@
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="B45" s="24" t="s">
+      <c r="A45" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B45" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24" t="s">
+      <c r="C45" s="23"/>
+      <c r="D45" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E45" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G45" s="25" t="s">
-        <v>288</v>
+      <c r="E45" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G45" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="H45" t="e">
         <f t="shared" si="3"/>
@@ -3035,24 +3170,24 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33" t="s">
+      <c r="A46" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="B46" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="33" t="s">
+      <c r="E46" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>242</v>
+      <c r="F46" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G46" s="32" t="s">
+        <v>239</v>
       </c>
       <c r="H46" t="e">
         <f t="shared" si="3"/>
@@ -3064,31 +3199,31 @@
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="37"/>
-      <c r="D47" s="37" t="s">
+      <c r="A47" s="36" t="s">
+        <v>271</v>
+      </c>
+      <c r="B47" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E47" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="G47" s="37" t="s">
-        <v>275</v>
+      <c r="E47" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>272</v>
       </c>
       <c r="H47" t="e">
         <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
       <c r="I47" t="str">
-        <f t="shared" ref="I47:I78" si="4">TRIM(RIGHT(SUBSTITUTE(J47," ",REPT(" ",LEN(J47))),LEN(J47)))</f>
+        <f t="shared" ref="I47:I64" si="4">TRIM(RIGHT(SUBSTITUTE(J47," ",REPT(" ",LEN(J47))),LEN(J47)))</f>
         <v/>
       </c>
     </row>
@@ -3121,28 +3256,28 @@
         <v>major</v>
       </c>
       <c r="J48" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="33" t="s">
-        <v>243</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33" t="s">
+      <c r="A49" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E49" s="33" t="s">
+      <c r="E49" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="G49" s="34" t="s">
-        <v>242</v>
+      <c r="F49" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G49" s="33" t="s">
+        <v>239</v>
       </c>
       <c r="H49" t="e">
         <f t="shared" si="5"/>
@@ -3182,28 +3317,28 @@
         <v>sulcirostris</v>
       </c>
       <c r="J50" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
+      <c r="A51" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E51" s="20" t="s">
         <v>136</v>
       </c>
-      <c r="B51" s="20" t="s">
+      <c r="F51" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20" t="s">
+      <c r="G51" s="19" t="s">
         <v>138</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>141</v>
       </c>
       <c r="H51" t="e">
         <f t="shared" si="5"/>
@@ -3216,10 +3351,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
@@ -3229,10 +3364,10 @@
         <v>55</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H52" t="e">
         <f t="shared" si="5"/>
@@ -3244,24 +3379,24 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="B53" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="C53" s="33"/>
-      <c r="D53" s="34" t="s">
+      <c r="A53" s="32" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="C53" s="32"/>
+      <c r="D53" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="E53" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="G53" s="34" t="s">
-        <v>242</v>
+      <c r="E53" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="F53" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" s="33" t="s">
+        <v>239</v>
       </c>
       <c r="H53" t="e">
         <f t="shared" si="5"/>
@@ -3301,7 +3436,7 @@
         <v>cachinnans</v>
       </c>
       <c r="J54" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -3334,24 +3469,24 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>176</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27" t="s">
-        <v>138</v>
-      </c>
-      <c r="E56" s="27" t="s">
+      <c r="A56" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="E56" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="F56" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G56" s="27" t="s">
-        <v>172</v>
+      <c r="F56" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="G56" s="26" t="s">
+        <v>169</v>
       </c>
       <c r="H56" t="e">
         <f t="shared" si="5"/>
@@ -3363,24 +3498,24 @@
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="B57" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="E57" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="F57" s="26" t="s">
+      <c r="A57" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="G57" s="25" t="s">
-        <v>288</v>
+      <c r="B57" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="F57" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="24" t="s">
+        <v>284</v>
       </c>
       <c r="H57" t="e">
         <f t="shared" si="5"/>
@@ -3449,28 +3584,28 @@
         <v>minuta</v>
       </c>
       <c r="J59" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E60" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F60" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="G60" s="19" t="s">
-        <v>132</v>
+      <c r="F60" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="G60" s="58" t="s">
+        <v>129</v>
       </c>
       <c r="H60" t="e">
         <f t="shared" si="5"/>
@@ -3483,97 +3618,106 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="G61" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="G61" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H61" t="e">
+      <c r="H61" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Hydrobates</v>
       </c>
       <c r="I61" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>castro</v>
+      </c>
+      <c r="J61" s="44" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C62" s="14"/>
       <c r="D62" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="H62" t="e">
+      <c r="F62" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="H62" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Fregata</v>
       </c>
       <c r="I62" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>magnificens</v>
+      </c>
+      <c r="J62" s="44" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C63" s="4"/>
       <c r="D63" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H63" t="e">
+        <v>188</v>
+      </c>
+      <c r="F63" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="G63" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H63" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Ciconia</v>
       </c>
       <c r="I63" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>maguari</v>
+      </c>
+      <c r="J63" s="44" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>105</v>
       </c>
       <c r="C64" s="16"/>
       <c r="D64" s="16" t="s">
@@ -3582,19 +3726,22 @@
       <c r="E64" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F64" s="16" t="s">
+      <c r="F64" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G64" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G64" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H64" t="e">
+      <c r="H64" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Amazona</v>
       </c>
       <c r="I64" t="str">
         <f t="shared" si="4"/>
-        <v/>
+        <v>farinosa</v>
+      </c>
+      <c r="J64" s="44" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3611,145 +3758,157 @@
       <c r="E65" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G65" s="8" t="s">
+      <c r="G65" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="41" t="s">
-        <v>294</v>
-      </c>
-      <c r="I65" s="41" t="s">
-        <v>295</v>
-      </c>
-      <c r="J65" s="41" t="str">
+      <c r="H65" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="I65" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="J65" s="42" t="str">
         <f>H65&amp;" " &amp; I65</f>
         <v xml:space="preserve"> Zenaida macroura</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="24"/>
-      <c r="D66" s="24" t="s">
+      <c r="A66" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E66" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F66" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G66" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="H66" t="e">
+      <c r="E66" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="F66" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="H66" t="str">
         <f t="shared" ref="H66:H79" si="6">LEFT(J66,FIND(" ",J66) -1)</f>
-        <v>#VALUE!</v>
+        <v>Cairina</v>
       </c>
       <c r="I66" t="str">
         <f t="shared" ref="I66:I79" si="7">TRIM(RIGHT(SUBSTITUTE(J66," ",REPT(" ",LEN(J66))),LEN(J66)))</f>
-        <v/>
+        <v>moschata</v>
+      </c>
+      <c r="J66" s="44" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C67" s="14"/>
       <c r="D67" s="14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E67" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="H67" t="e">
+      <c r="F67" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="H67" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>Phalacrocorax</v>
       </c>
       <c r="I67" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>brasilianus</v>
+      </c>
+      <c r="J67" s="44" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
-        <v>287</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="24"/>
-      <c r="D68" s="24" t="s">
+      <c r="A68" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B68" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="23"/>
+      <c r="D68" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E68" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="F68" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G68" s="25" t="s">
-        <v>288</v>
-      </c>
-      <c r="H68" t="e">
+      <c r="E68" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="F68" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="G68" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="H68" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>Spatula</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>clypeata</v>
+      </c>
+      <c r="J68" s="44" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
-        <v>177</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>178</v>
-      </c>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27" t="s">
-        <v>179</v>
-      </c>
-      <c r="E69" s="27" t="s">
+      <c r="A69" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="E69" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="F69" s="27" t="s">
-        <v>171</v>
-      </c>
-      <c r="G69" s="27" t="s">
-        <v>172</v>
-      </c>
-      <c r="H69" t="e">
+      <c r="F69" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="G69" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="H69" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>Steatornis</v>
       </c>
       <c r="I69" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>caripensis</v>
+      </c>
+      <c r="J69" s="44" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C70" s="16"/>
       <c r="D70" s="16" t="s">
@@ -3758,19 +3917,22 @@
       <c r="E70" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F70" s="16" t="s">
+      <c r="F70" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G70" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G70" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H70" t="e">
+      <c r="H70" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>Brotogeris</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>jugularis</v>
+      </c>
+      <c r="J70" s="44" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3787,10 +3949,10 @@
       <c r="E71" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="G71" s="13" t="s">
+      <c r="G71" s="62" t="s">
         <v>42</v>
       </c>
       <c r="H71" t="str">
@@ -3801,16 +3963,16 @@
         <f t="shared" si="7"/>
         <v>peregrinus</v>
       </c>
-      <c r="J71" t="s">
-        <v>308</v>
+      <c r="J71" s="43" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2" t="s">
@@ -3819,19 +3981,22 @@
       <c r="E72" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="59" t="s">
         <v>89</v>
       </c>
-      <c r="H72" t="e">
+      <c r="H72" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>Podilymbus</v>
       </c>
       <c r="I72" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>podiceps</v>
+      </c>
+      <c r="J72" s="44" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -3848,10 +4013,10 @@
       <c r="E73" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G73" s="49" t="s">
         <v>8</v>
       </c>
       <c r="H73" t="str">
@@ -3862,74 +4027,80 @@
         <f t="shared" si="7"/>
         <v>minuta</v>
       </c>
-      <c r="J73" s="41" t="s">
-        <v>298</v>
+      <c r="J73" s="42" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>196</v>
-      </c>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28" t="s">
+      <c r="A74" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="B74" s="27" t="s">
         <v>193</v>
       </c>
-      <c r="E74" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>182</v>
-      </c>
-      <c r="G74" s="28" t="s">
-        <v>183</v>
-      </c>
-      <c r="H74" t="e">
+      <c r="C74" s="27"/>
+      <c r="D74" s="27" t="s">
+        <v>190</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="F74" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="G74" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="H74" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>Stercorarius</v>
       </c>
       <c r="I74" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>pomarinus</v>
+      </c>
+      <c r="J74" s="44" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>127</v>
+        <v>358</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C75" s="14"/>
       <c r="D75" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E75" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="H75" t="e">
+        <v>127</v>
+      </c>
+      <c r="F75" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="G75" s="60" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>Sula</v>
       </c>
       <c r="I75" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>sula</v>
+      </c>
+      <c r="J75" s="44" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>108</v>
+        <v>359</v>
       </c>
       <c r="B76" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" s="16"/>
       <c r="D76" s="16" t="s">
@@ -3938,77 +4109,86 @@
       <c r="E76" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="F76" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="G76" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G76" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H76" t="e">
+      <c r="H76" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>Amazona</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>autumnalis</v>
+      </c>
+      <c r="J76" s="44" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
+      <c r="A77" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B77" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="C77" s="38"/>
+      <c r="D77" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>279</v>
+      </c>
+      <c r="F77" s="38" t="s">
+        <v>280</v>
+      </c>
+      <c r="G77" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="B77" s="39" t="s">
-        <v>282</v>
-      </c>
-      <c r="C77" s="39"/>
-      <c r="D77" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>283</v>
-      </c>
-      <c r="F77" s="39" t="s">
-        <v>284</v>
-      </c>
-      <c r="G77" s="39" t="s">
-        <v>285</v>
-      </c>
-      <c r="H77" t="e">
+      <c r="H77" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>Phaethon</v>
       </c>
       <c r="I77" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>aethereus</v>
+      </c>
+      <c r="J77" s="44" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="B78" s="37" t="s">
+      <c r="A78" s="36" t="s">
+        <v>273</v>
+      </c>
+      <c r="B78" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37" t="s">
-        <v>259</v>
-      </c>
-      <c r="E78" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F78" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="G78" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="H78" t="e">
+      <c r="C78" s="36"/>
+      <c r="D78" s="36" t="s">
+        <v>256</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>224</v>
+      </c>
+      <c r="F78" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G78" s="70" t="s">
+        <v>265</v>
+      </c>
+      <c r="H78" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>Eubucco</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>bourcierii</v>
+      </c>
+      <c r="J78" s="44" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4025,19 +4205,22 @@
       <c r="E79" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="G79" s="5" t="s">
+      <c r="G79" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="H79" t="e">
+      <c r="H79" t="str">
         <f t="shared" si="6"/>
-        <v>#VALUE!</v>
+        <v>Platalea</v>
       </c>
       <c r="I79" t="str">
         <f t="shared" si="7"/>
-        <v/>
+        <v>ajaja</v>
+      </c>
+      <c r="J79" s="44" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4054,79 +4237,85 @@
       <c r="E80" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="G80" s="8" t="s">
+      <c r="G80" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="H80" s="41" t="s">
-        <v>292</v>
-      </c>
-      <c r="I80" s="41" t="s">
-        <v>293</v>
-      </c>
-      <c r="J80" s="41" t="str">
+      <c r="H80" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="I80" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="J80" s="42" t="str">
         <f>H80&amp;" " &amp; I80</f>
         <v>Columbina talpacoti</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="29" t="s">
-        <v>217</v>
-      </c>
-      <c r="B81" s="29" t="s">
-        <v>218</v>
-      </c>
-      <c r="C81" s="29"/>
-      <c r="D81" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="E81" s="29" t="s">
+      <c r="A81" s="28" t="s">
+        <v>214</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>215</v>
+      </c>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E81" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F81" s="29" t="s">
-        <v>208</v>
-      </c>
-      <c r="G81" s="29" t="s">
-        <v>209</v>
-      </c>
-      <c r="H81" t="e">
+      <c r="F81" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="G81" s="65" t="s">
+        <v>354</v>
+      </c>
+      <c r="H81" t="str">
         <f t="shared" ref="H81:H91" si="8">LEFT(J81,FIND(" ",J81) -1)</f>
-        <v>#VALUE!</v>
+        <v>Baryphthengus</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" ref="I81:I91" si="9">TRIM(RIGHT(SUBSTITUTE(J81," ",REPT(" ",LEN(J81))),LEN(J81)))</f>
-        <v/>
+        <v>martii</v>
+      </c>
+      <c r="J81" s="44" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="C82" s="20"/>
-      <c r="D82" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="E82" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="G82" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H82" t="e">
+      <c r="A82" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="E82" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="F82" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G82" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H82" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>Rostrhamus</v>
       </c>
       <c r="I82" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>sociabilis</v>
+      </c>
+      <c r="J82" s="44" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4143,19 +4332,22 @@
       <c r="E83" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="G83" s="5" t="s">
+      <c r="G83" s="64" t="s">
         <v>83</v>
       </c>
-      <c r="H83" t="e">
+      <c r="H83" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>Egretta</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>thula</v>
+      </c>
+      <c r="J83" s="44" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4172,48 +4364,54 @@
       <c r="E84" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G84" s="7" t="s">
+      <c r="G84" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="H84" t="e">
+      <c r="H84" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>Porzana</v>
       </c>
       <c r="I84" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>carolina</v>
+      </c>
+      <c r="J84" s="44" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
+      <c r="A85" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="B85" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="E85" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="G85" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="B85" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35" t="s">
-        <v>28</v>
-      </c>
-      <c r="E85" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F85" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="G85" s="36" t="s">
-        <v>251</v>
-      </c>
-      <c r="H85" t="e">
+      <c r="H85" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>Pulsatrix</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>perspicillata</v>
+      </c>
+      <c r="J85" s="44" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4230,10 +4428,10 @@
       <c r="E86" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F86" s="10" t="s">
+      <c r="F86" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="G86" s="11" t="s">
+      <c r="G86" s="67" t="s">
         <v>26</v>
       </c>
       <c r="H86" t="str">
@@ -4244,37 +4442,40 @@
         <f t="shared" si="9"/>
         <v>cayana</v>
       </c>
-      <c r="J86" t="s">
-        <v>304</v>
+      <c r="J86" s="43" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="B87" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="E87" s="31" t="s">
+      <c r="A87" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="B87" s="30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E87" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="F87" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="G87" s="31" t="s">
-        <v>209</v>
-      </c>
-      <c r="H87" t="e">
+      <c r="F87" s="63" t="s">
+        <v>352</v>
+      </c>
+      <c r="G87" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="H87" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>Eurypyga</v>
       </c>
       <c r="I87" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>helias</v>
+      </c>
+      <c r="J87" s="44" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4291,85 +4492,94 @@
       <c r="E88" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="G88" s="7" t="s">
+      <c r="G88" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="H88" t="e">
+      <c r="H88" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>Heliornis</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>fulica</v>
+      </c>
+      <c r="J88" s="44" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="C89" s="20"/>
-      <c r="D89" s="20" t="s">
+      <c r="A89" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E89" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G89" s="22" t="s">
         <v>138</v>
       </c>
-      <c r="E89" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="G89" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="H89" t="e">
+      <c r="H89" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>Accipiter</v>
       </c>
       <c r="I89" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>superciliosus</v>
+      </c>
+      <c r="J89" s="44" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="E90" s="22" t="s">
+      <c r="A90" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F90" s="20" t="s">
+      <c r="B90" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="G90" s="20" t="s">
+      <c r="C90" s="19"/>
+      <c r="D90" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="H90" t="e">
+      <c r="E90" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="F90" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="G90" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H90" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>Pseudastur</v>
       </c>
       <c r="I90" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>albicollis</v>
+      </c>
+      <c r="J90" s="44" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
@@ -4378,19 +4588,22 @@
       <c r="E91" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F91" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="G91" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="H91" t="e">
+      <c r="F91" s="47" t="s">
+        <v>197</v>
+      </c>
+      <c r="G91" s="47" t="s">
+        <v>198</v>
+      </c>
+      <c r="H91" t="str">
         <f t="shared" si="8"/>
-        <v>#VALUE!</v>
+        <v>Mycteria</v>
       </c>
       <c r="I91" t="str">
         <f t="shared" si="9"/>
-        <v/>
+        <v>americana</v>
+      </c>
+      <c r="J91" s="44" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -4398,6 +4611,6 @@
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/Ontology Data.xlsx
+++ b/Data/Ontology Data.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos\Documents\GitHub\PanamenianNestOntology\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FranciscoIvan\Documents\GitHub\PanamenianNestOntology\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$J$91</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="401">
   <si>
     <t>Nombre</t>
   </si>
@@ -842,9 +842,6 @@
     <t>Picidae</t>
   </si>
   <si>
-    <t>Great Jamacar</t>
-  </si>
-  <si>
     <t>Galbulidae</t>
   </si>
   <si>
@@ -1149,6 +1146,90 @@
   </si>
   <si>
     <t>Brotogeris jugularis</t>
+  </si>
+  <si>
+    <t>Pionus menstruus</t>
+  </si>
+  <si>
+    <t>Electron platyrhynchum</t>
+  </si>
+  <si>
+    <t>Pelecanus occidentalis</t>
+  </si>
+  <si>
+    <t>Athene cunicularia</t>
+  </si>
+  <si>
+    <t>Ara severus</t>
+  </si>
+  <si>
+    <t>Ardea cocoi</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Chordeiles minor</t>
+  </si>
+  <si>
+    <t>Nyctibius jamaicensis</t>
+  </si>
+  <si>
+    <t>Nyctibiidae</t>
+  </si>
+  <si>
+    <t>Glaucidium jardinii</t>
+  </si>
+  <si>
+    <t>Colinus cristatus</t>
+  </si>
+  <si>
+    <t>Burhinus bistriatus</t>
+  </si>
+  <si>
+    <t>Dendrocygna bicolor</t>
+  </si>
+  <si>
+    <t>Trogon violaceus</t>
+  </si>
+  <si>
+    <t>Trogon viridis</t>
+  </si>
+  <si>
+    <t>Harpia harpyja</t>
+  </si>
+  <si>
+    <t>Jabiru mycteria</t>
+  </si>
+  <si>
+    <t>Trogon clathratus</t>
+  </si>
+  <si>
+    <t>Tachybaptus dominicus</t>
+  </si>
+  <si>
+    <t>Chordeiles acutipennis</t>
+  </si>
+  <si>
+    <t>Aythya affinis</t>
+  </si>
+  <si>
+    <t>Aramus guarauna</t>
+  </si>
+  <si>
+    <t>Crypturellus soui</t>
+  </si>
+  <si>
+    <t>Momotus momota</t>
+  </si>
+  <si>
+    <t>Sula nebouxii</t>
+  </si>
+  <si>
+    <t>Great Jacamar</t>
+  </si>
+  <si>
+    <t>Jacamerops aureus</t>
   </si>
 </sst>
 </file>
@@ -1755,13 +1836,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J91"/>
+  <dimension ref="A1:K91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E52" workbookViewId="0">
-      <selection activeCell="E60" sqref="A60:XFD60"/>
+    <sheetView tabSelected="1" topLeftCell="E58" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
@@ -1771,8 +1852,8 @@
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1798,13 +1879,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>286</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1828,13 +1909,13 @@
         <v>270</v>
       </c>
       <c r="H2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" t="s">
         <v>306</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>307</v>
-      </c>
-      <c r="J2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1866,7 +1947,7 @@
         <v>amazona</v>
       </c>
       <c r="J3" s="28" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1898,7 +1979,7 @@
         <v>americana</v>
       </c>
       <c r="J4" s="41" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1930,7 +2011,7 @@
         <v>mexicanus</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1951,7 +2032,7 @@
         <v>179</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
@@ -1962,7 +2043,7 @@
         <v>fulva</v>
       </c>
       <c r="J6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1994,7 +2075,7 @@
         <v>sparverius</v>
       </c>
       <c r="J7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -2015,7 +2096,7 @@
         <v>179</v>
       </c>
       <c r="G8" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
@@ -2026,7 +2107,7 @@
         <v>palliatus</v>
       </c>
       <c r="J8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -2058,7 +2139,7 @@
         <v>martinicus</v>
       </c>
       <c r="J9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -2090,7 +2171,7 @@
         <v>albus</v>
       </c>
       <c r="J10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -2108,7 +2189,7 @@
         <v>12</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>111</v>
@@ -2122,7 +2203,7 @@
         <v>anhinga</v>
       </c>
       <c r="J11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -2143,7 +2224,7 @@
         <v>179</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -2154,7 +2235,7 @@
         <v>paradisaea</v>
       </c>
       <c r="J12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -2175,7 +2256,7 @@
         <v>226</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -2186,7 +2267,7 @@
         <v>flaveola</v>
       </c>
       <c r="J13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -2210,10 +2291,10 @@
         <v>8</v>
       </c>
       <c r="H14" s="40" t="s">
+        <v>291</v>
+      </c>
+      <c r="I14" t="s">
         <v>292</v>
-      </c>
-      <c r="I14" t="s">
-        <v>293</v>
       </c>
       <c r="J14" t="str">
         <f>H14&amp;" " &amp; I14</f>
@@ -2241,14 +2322,14 @@
         <v>253</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" ref="I15:I46" si="2">TRIM(RIGHT(SUBSTITUTE(J15," ",REPT(" ",LEN(J15))),LEN(J15)))</f>
         <v>alba</v>
       </c>
       <c r="J15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -2280,19 +2361,19 @@
         <v>ruficollis</v>
       </c>
       <c r="J16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B17" s="36" t="s">
         <v>173</v>
       </c>
       <c r="C17" s="36"/>
       <c r="D17" s="36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>224</v>
@@ -2301,7 +2382,7 @@
         <v>264</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="3"/>
@@ -2312,12 +2393,12 @@
         <v>radiatus</v>
       </c>
       <c r="J17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>47</v>
@@ -2344,7 +2425,7 @@
         <v>rufigularis</v>
       </c>
       <c r="J18" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
@@ -2376,7 +2457,7 @@
         <v>alcyon</v>
       </c>
       <c r="J19" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -2408,7 +2489,7 @@
         <v>erythropthalmus</v>
       </c>
       <c r="J20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -2429,7 +2510,7 @@
         <v>219</v>
       </c>
       <c r="G21" s="31" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
@@ -2440,7 +2521,7 @@
         <v>unicolor</v>
       </c>
       <c r="J21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
@@ -2472,7 +2553,7 @@
         <v>atratus</v>
       </c>
       <c r="J22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
@@ -2504,7 +2585,7 @@
         <v>nigrolineata</v>
       </c>
       <c r="J23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -2525,7 +2606,7 @@
         <v>155</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
@@ -2536,7 +2617,7 @@
         <v>autumnalis</v>
       </c>
       <c r="J24" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -2557,7 +2638,7 @@
         <v>226</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
@@ -2568,7 +2649,7 @@
         <v>michleri</v>
       </c>
       <c r="J25" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -2600,7 +2681,7 @@
         <v>nycticorax</v>
       </c>
       <c r="J26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -2632,7 +2713,7 @@
         <v>poliogaster</v>
       </c>
       <c r="J27" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -2664,7 +2745,7 @@
         <v>ambiguus</v>
       </c>
       <c r="J28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -2696,7 +2777,7 @@
         <v>melanurus</v>
       </c>
       <c r="J29" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2728,7 +2809,7 @@
         <v>rufus</v>
       </c>
       <c r="J30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -2746,18 +2827,21 @@
         <v>19</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="G31" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="H31" t="e">
+      <c r="H31" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Sula</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>nebouxii</v>
+      </c>
+      <c r="J31" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2780,16 +2864,19 @@
       <c r="G32" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="H32" t="e">
+      <c r="H32" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Pionus</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>menstruus</v>
+      </c>
+      <c r="J32" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>210</v>
       </c>
@@ -2807,18 +2894,21 @@
         <v>205</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="H33" t="e">
+        <v>353</v>
+      </c>
+      <c r="H33" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Momotus</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>momota</v>
+      </c>
+      <c r="J33" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>212</v>
       </c>
@@ -2836,18 +2926,21 @@
         <v>205</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="H34" t="e">
+        <v>353</v>
+      </c>
+      <c r="H34" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Electron</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>platyrhynchum</v>
+      </c>
+      <c r="J34" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>77</v>
       </c>
@@ -2867,16 +2960,19 @@
       <c r="G35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H35" t="e">
+      <c r="H35" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Pelecanus</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>occidentalis</v>
+      </c>
+      <c r="J35" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
         <v>257</v>
       </c>
@@ -2896,16 +2992,19 @@
       <c r="G36" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="H36" t="e">
+      <c r="H36" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Athene</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>cunicularia</v>
+      </c>
+      <c r="J36" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>100</v>
       </c>
@@ -2925,16 +3024,19 @@
       <c r="G37" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="H37" t="e">
+      <c r="H37" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Ara</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>severus</v>
+      </c>
+      <c r="J37" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>84</v>
       </c>
@@ -2954,16 +3056,19 @@
       <c r="G38" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H38" t="e">
+      <c r="H38" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Ardea</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>cocoi</v>
+      </c>
+      <c r="J38" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>23</v>
       </c>
@@ -2992,10 +3097,13 @@
         <v>passerina</v>
       </c>
       <c r="J39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="K39" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="26" t="s">
         <v>165</v>
       </c>
@@ -3015,16 +3123,19 @@
       <c r="G40" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="H40" t="e">
+      <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Chordeiles</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>minor</v>
+      </c>
+      <c r="J40" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="26" t="s">
         <v>170</v>
       </c>
@@ -3042,18 +3153,21 @@
         <v>168</v>
       </c>
       <c r="G41" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="H41" t="e">
+        <v>382</v>
+      </c>
+      <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Nyctibius</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>jamaicensis</v>
+      </c>
+      <c r="J41" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="34" t="s">
         <v>254</v>
       </c>
@@ -3073,16 +3187,19 @@
       <c r="G42" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="H42" t="e">
+      <c r="H42" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Glaucidium</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>jardinii</v>
+      </c>
+      <c r="J42" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="31" t="s">
         <v>218</v>
       </c>
@@ -3102,16 +3219,19 @@
       <c r="G43" s="31" t="s">
         <v>220</v>
       </c>
-      <c r="H43" t="e">
+      <c r="H43" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Colinus</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>cristatus</v>
+      </c>
+      <c r="J43" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="27" t="s">
         <v>177</v>
       </c>
@@ -3131,16 +3251,19 @@
       <c r="G44" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="H44" t="e">
+      <c r="H44" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Burhinus</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>bistriatus</v>
+      </c>
+      <c r="J44" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
         <v>156</v>
       </c>
@@ -3158,18 +3281,21 @@
         <v>155</v>
       </c>
       <c r="G45" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="H45" t="e">
+        <v>283</v>
+      </c>
+      <c r="H45" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Dendrocygna</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>bicolor</v>
+      </c>
+      <c r="J45" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>241</v>
       </c>
@@ -3189,18 +3315,21 @@
       <c r="G46" s="32" t="s">
         <v>239</v>
       </c>
-      <c r="H46" t="e">
+      <c r="H46" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Trogon</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>violaceus</v>
+      </c>
+      <c r="J46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="36" t="s">
-        <v>271</v>
+        <v>399</v>
       </c>
       <c r="B47" s="36" t="s">
         <v>204</v>
@@ -3216,18 +3345,21 @@
         <v>264</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>272</v>
-      </c>
-      <c r="H47" t="e">
+        <v>271</v>
+      </c>
+      <c r="H47" t="str">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
+        <v>Jacamerops</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" ref="I47:I64" si="4">TRIM(RIGHT(SUBSTITUTE(J47," ",REPT(" ",LEN(J47))),LEN(J47)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>aureus</v>
+      </c>
+      <c r="J47" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>29</v>
       </c>
@@ -3256,10 +3388,13 @@
         <v>major</v>
       </c>
       <c r="J48" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="K48" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
         <v>240</v>
       </c>
@@ -3279,16 +3414,19 @@
       <c r="G49" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="H49" t="e">
+      <c r="H49" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Trogon</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>viridis</v>
+      </c>
+      <c r="J49" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>33</v>
       </c>
@@ -3317,10 +3455,13 @@
         <v>sulcirostris</v>
       </c>
       <c r="J50" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+      <c r="K50" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
         <v>133</v>
       </c>
@@ -3340,16 +3481,19 @@
       <c r="G51" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H51" t="e">
+      <c r="H51" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Harpia</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>harpyja</v>
+      </c>
+      <c r="J51" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>195</v>
       </c>
@@ -3364,21 +3508,24 @@
         <v>55</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>197</v>
+        <v>70</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="H52" t="e">
+      <c r="H52" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Jabiru</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>mycteria</v>
+      </c>
+      <c r="J52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>237</v>
       </c>
@@ -3398,16 +3545,19 @@
       <c r="G53" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="H53" t="e">
+      <c r="H53" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Trogon</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>clathratus</v>
+      </c>
+      <c r="J53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>53</v>
       </c>
@@ -3436,10 +3586,13 @@
         <v>cachinnans</v>
       </c>
       <c r="J54" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="K54" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>87</v>
       </c>
@@ -3459,16 +3612,19 @@
       <c r="G55" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="H55" t="e">
+      <c r="H55" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Tachybaptus</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>dominicus</v>
+      </c>
+      <c r="J55" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="26" t="s">
         <v>172</v>
       </c>
@@ -3488,16 +3644,19 @@
       <c r="G56" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="H56" t="e">
+      <c r="H56" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Chordeiles</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>acutipennis</v>
+      </c>
+      <c r="J56" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
         <v>158</v>
       </c>
@@ -3515,18 +3674,21 @@
         <v>155</v>
       </c>
       <c r="G57" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="H57" t="e">
+        <v>283</v>
+      </c>
+      <c r="H57" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Aythya</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>affinis</v>
+      </c>
+      <c r="J57" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>67</v>
       </c>
@@ -3546,16 +3708,19 @@
       <c r="G58" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H58" t="e">
+      <c r="H58" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Aramus</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>guarauna</v>
+      </c>
+      <c r="J58" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>36</v>
       </c>
@@ -3584,10 +3749,13 @@
         <v>minuta</v>
       </c>
       <c r="J59" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="K59" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="18" t="s">
         <v>130</v>
       </c>
@@ -3607,16 +3775,19 @@
       <c r="G60" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="H60" t="e">
+      <c r="H60" t="str">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
+        <v>Crypturellus</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>soui</v>
+      </c>
+      <c r="J60" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>93</v>
       </c>
@@ -3645,10 +3816,10 @@
         <v>castro</v>
       </c>
       <c r="J61" s="44" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>112</v>
       </c>
@@ -3677,10 +3848,10 @@
         <v>magnificens</v>
       </c>
       <c r="J62" s="44" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>199</v>
       </c>
@@ -3709,10 +3880,10 @@
         <v>maguari</v>
       </c>
       <c r="J63" s="44" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
         <v>103</v>
       </c>
@@ -3741,7 +3912,7 @@
         <v>farinosa</v>
       </c>
       <c r="J64" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -3765,10 +3936,10 @@
         <v>8</v>
       </c>
       <c r="H65" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="I65" s="40" t="s">
         <v>290</v>
-      </c>
-      <c r="I65" s="40" t="s">
-        <v>291</v>
       </c>
       <c r="J65" s="42" t="str">
         <f>H65&amp;" " &amp; I65</f>
@@ -3793,7 +3964,7 @@
         <v>155</v>
       </c>
       <c r="G66" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" ref="H66:H79" si="6">LEFT(J66,FIND(" ",J66) -1)</f>
@@ -3804,7 +3975,7 @@
         <v>moschata</v>
       </c>
       <c r="J66" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3836,12 +4007,12 @@
         <v>brasilianus</v>
       </c>
       <c r="J67" s="44" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="24" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B68" s="23" t="s">
         <v>163</v>
@@ -3857,7 +4028,7 @@
         <v>155</v>
       </c>
       <c r="G68" s="50" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="6"/>
@@ -3868,7 +4039,7 @@
         <v>clypeata</v>
       </c>
       <c r="J68" s="44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -3889,7 +4060,7 @@
         <v>168</v>
       </c>
       <c r="G69" s="69" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="6"/>
@@ -3900,7 +4071,7 @@
         <v>caripensis</v>
       </c>
       <c r="J69" s="44" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
@@ -3932,7 +4103,7 @@
         <v>jugularis</v>
       </c>
       <c r="J70" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
@@ -3964,12 +4135,12 @@
         <v>peregrinus</v>
       </c>
       <c r="J71" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>90</v>
@@ -3996,7 +4167,7 @@
         <v>podiceps</v>
       </c>
       <c r="J72" s="44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
@@ -4028,7 +4199,7 @@
         <v>minuta</v>
       </c>
       <c r="J73" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -4049,7 +4220,7 @@
         <v>179</v>
       </c>
       <c r="G74" s="63" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="6"/>
@@ -4060,12 +4231,12 @@
         <v>pomarinus</v>
       </c>
       <c r="J74" s="44" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>125</v>
@@ -4092,12 +4263,12 @@
         <v>sula</v>
       </c>
       <c r="J75" s="44" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>107</v>
@@ -4124,28 +4295,28 @@
         <v>autumnalis</v>
       </c>
       <c r="J76" s="44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B77" s="38" t="s">
         <v>277</v>
-      </c>
-      <c r="B77" s="38" t="s">
-        <v>278</v>
       </c>
       <c r="C77" s="38"/>
       <c r="D77" s="38" t="s">
         <v>123</v>
       </c>
       <c r="E77" s="38" t="s">
+        <v>278</v>
+      </c>
+      <c r="F77" s="38" t="s">
         <v>279</v>
       </c>
-      <c r="F77" s="38" t="s">
+      <c r="G77" s="38" t="s">
         <v>280</v>
-      </c>
-      <c r="G77" s="38" t="s">
-        <v>281</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="6"/>
@@ -4156,12 +4327,12 @@
         <v>aethereus</v>
       </c>
       <c r="J77" s="44" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B78" s="36" t="s">
         <v>21</v>
@@ -4188,7 +4359,7 @@
         <v>bourcierii</v>
       </c>
       <c r="J78" s="44" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
@@ -4220,7 +4391,7 @@
         <v>ajaja</v>
       </c>
       <c r="J79" s="44" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -4244,10 +4415,10 @@
         <v>8</v>
       </c>
       <c r="H80" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="I80" s="40" t="s">
         <v>288</v>
-      </c>
-      <c r="I80" s="40" t="s">
-        <v>289</v>
       </c>
       <c r="J80" s="42" t="str">
         <f>H80&amp;" " &amp; I80</f>
@@ -4272,7 +4443,7 @@
         <v>205</v>
       </c>
       <c r="G81" s="65" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" ref="H81:H91" si="8">LEFT(J81,FIND(" ",J81) -1)</f>
@@ -4283,7 +4454,7 @@
         <v>martii</v>
       </c>
       <c r="J81" s="44" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
@@ -4315,7 +4486,7 @@
         <v>sociabilis</v>
       </c>
       <c r="J82" s="44" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -4347,7 +4518,7 @@
         <v>thula</v>
       </c>
       <c r="J83" s="44" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
@@ -4379,7 +4550,7 @@
         <v>carolina</v>
       </c>
       <c r="J84" s="44" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
@@ -4411,7 +4582,7 @@
         <v>perspicillata</v>
       </c>
       <c r="J85" s="44" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -4443,7 +4614,7 @@
         <v>cayana</v>
       </c>
       <c r="J86" s="43" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -4461,10 +4632,10 @@
         <v>32</v>
       </c>
       <c r="F87" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="G87" s="63" t="s">
         <v>352</v>
-      </c>
-      <c r="G87" s="63" t="s">
-        <v>353</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="8"/>
@@ -4475,7 +4646,7 @@
         <v>helias</v>
       </c>
       <c r="J87" s="44" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -4507,7 +4678,7 @@
         <v>fulica</v>
       </c>
       <c r="J88" s="44" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
@@ -4539,7 +4710,7 @@
         <v>superciliosus</v>
       </c>
       <c r="J89" s="44" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
@@ -4571,7 +4742,7 @@
         <v>albicollis</v>
       </c>
       <c r="J90" s="44" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -4603,7 +4774,7 @@
         <v>americana</v>
       </c>
       <c r="J91" s="44" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Ontology Data.xlsx
+++ b/Data/Ontology Data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="375">
   <si>
     <t>Nombre</t>
   </si>
@@ -1149,6 +1149,9 @@
   </si>
   <si>
     <t>Brotogeris jugularis</t>
+  </si>
+  <si>
+    <t>Harpia harpyja</t>
   </si>
 </sst>
 </file>
@@ -1438,18 +1441,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1769,18 +1761,18 @@
   <dimension ref="A1:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="81" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="81" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
@@ -1843,7 +1835,7 @@
         <v>Coragyps</v>
       </c>
       <c r="I2" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J2," ",REPT(" ",LEN(J2))),LEN(J2)))</f>
+        <f t="shared" ref="I2:I23" si="0">TRIM(RIGHT(SUBSTITUTE(J2," ",REPT(" ",LEN(J2))),LEN(J2)))</f>
         <v>atratus</v>
       </c>
       <c r="J2" t="s">
@@ -1870,13 +1862,16 @@
       <c r="G3" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="H3" t="e">
-        <f>LEFT(J3,FIND(" ",J3) -1)</f>
-        <v>#VALUE!</v>
+      <c r="H3" t="str">
+        <f t="shared" ref="H2:H23" si="1">LEFT(J3,FIND(" ",J3) -1)</f>
+        <v>Harpia</v>
       </c>
       <c r="I3" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J3," ",REPT(" ",LEN(J3))),LEN(J3)))</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>harpyja</v>
+      </c>
+      <c r="J3" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1900,11 +1895,11 @@
         <v>138</v>
       </c>
       <c r="H4" t="str">
-        <f>LEFT(J4,FIND(" ",J4) -1)</f>
+        <f t="shared" si="1"/>
         <v>Rostrhamus</v>
       </c>
       <c r="I4" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J4," ",REPT(" ",LEN(J4))),LEN(J4)))</f>
+        <f t="shared" si="0"/>
         <v>sociabilis</v>
       </c>
       <c r="J4" s="44" t="s">
@@ -1932,11 +1927,11 @@
         <v>138</v>
       </c>
       <c r="H5" t="str">
-        <f>LEFT(J5,FIND(" ",J5) -1)</f>
+        <f t="shared" si="1"/>
         <v>Accipiter</v>
       </c>
       <c r="I5" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J5," ",REPT(" ",LEN(J5))),LEN(J5)))</f>
+        <f t="shared" si="0"/>
         <v>superciliosus</v>
       </c>
       <c r="J5" s="44" t="s">
@@ -1964,11 +1959,11 @@
         <v>138</v>
       </c>
       <c r="H6" t="str">
-        <f>LEFT(J6,FIND(" ",J6) -1)</f>
+        <f t="shared" si="1"/>
         <v>Pseudastur</v>
       </c>
       <c r="I6" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J6," ",REPT(" ",LEN(J6))),LEN(J6)))</f>
+        <f t="shared" si="0"/>
         <v>albicollis</v>
       </c>
       <c r="J6" s="44" t="s">
@@ -1996,11 +1991,11 @@
         <v>284</v>
       </c>
       <c r="H7" t="str">
-        <f>LEFT(J7,FIND(" ",J7) -1)</f>
+        <f t="shared" si="1"/>
         <v>Dendrocygna</v>
       </c>
       <c r="I7" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J7," ",REPT(" ",LEN(J7))),LEN(J7)))</f>
+        <f t="shared" si="0"/>
         <v>autumnalis</v>
       </c>
       <c r="J7" t="s">
@@ -2028,11 +2023,11 @@
         <v>284</v>
       </c>
       <c r="H8" t="e">
-        <f>LEFT(J8,FIND(" ",J8) -1)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I8" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J8," ",REPT(" ",LEN(J8))),LEN(J8)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2057,11 +2052,11 @@
         <v>284</v>
       </c>
       <c r="H9" t="e">
-        <f>LEFT(J9,FIND(" ",J9) -1)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I9" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J9," ",REPT(" ",LEN(J9))),LEN(J9)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2086,11 +2081,11 @@
         <v>284</v>
       </c>
       <c r="H10" t="str">
-        <f>LEFT(J10,FIND(" ",J10) -1)</f>
+        <f t="shared" si="1"/>
         <v>Cairina</v>
       </c>
       <c r="I10" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J10," ",REPT(" ",LEN(J10))),LEN(J10)))</f>
+        <f t="shared" si="0"/>
         <v>moschata</v>
       </c>
       <c r="J10" s="44" t="s">
@@ -2118,11 +2113,11 @@
         <v>284</v>
       </c>
       <c r="H11" t="str">
-        <f>LEFT(J11,FIND(" ",J11) -1)</f>
+        <f t="shared" si="1"/>
         <v>Spatula</v>
       </c>
       <c r="I11" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J11," ",REPT(" ",LEN(J11))),LEN(J11)))</f>
+        <f t="shared" si="0"/>
         <v>clypeata</v>
       </c>
       <c r="J11" s="44" t="s">
@@ -2150,11 +2145,11 @@
         <v>169</v>
       </c>
       <c r="H12" t="e">
-        <f>LEFT(J12,FIND(" ",J12) -1)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I12" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J12," ",REPT(" ",LEN(J12))),LEN(J12)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2179,11 +2174,11 @@
         <v>169</v>
       </c>
       <c r="H13" t="e">
-        <f>LEFT(J13,FIND(" ",J13) -1)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I13" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J13," ",REPT(" ",LEN(J13))),LEN(J13)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2208,11 +2203,11 @@
         <v>169</v>
       </c>
       <c r="H14" t="e">
-        <f>LEFT(J14,FIND(" ",J14) -1)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I14" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J14," ",REPT(" ",LEN(J14))),LEN(J14)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2237,11 +2232,11 @@
         <v>372</v>
       </c>
       <c r="H15" t="str">
-        <f>LEFT(J15,FIND(" ",J15) -1)</f>
+        <f t="shared" si="1"/>
         <v>Steatornis</v>
       </c>
       <c r="I15" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J15," ",REPT(" ",LEN(J15))),LEN(J15)))</f>
+        <f t="shared" si="0"/>
         <v>caripensis</v>
       </c>
       <c r="J15" s="44" t="s">
@@ -2269,11 +2264,11 @@
         <v>312</v>
       </c>
       <c r="H16" t="str">
-        <f>LEFT(J16,FIND(" ",J16) -1)</f>
+        <f t="shared" si="1"/>
         <v>  Pluvialis</v>
       </c>
       <c r="I16" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J16," ",REPT(" ",LEN(J16))),LEN(J16)))</f>
+        <f t="shared" si="0"/>
         <v>fulva</v>
       </c>
       <c r="J16" t="s">
@@ -2301,11 +2296,11 @@
         <v>314</v>
       </c>
       <c r="H17" t="str">
-        <f>LEFT(J17,FIND(" ",J17) -1)</f>
+        <f t="shared" si="1"/>
         <v> Haematopus</v>
       </c>
       <c r="I17" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J17," ",REPT(" ",LEN(J17))),LEN(J17)))</f>
+        <f t="shared" si="0"/>
         <v>palliatus</v>
       </c>
       <c r="J17" t="s">
@@ -2333,11 +2328,11 @@
         <v>320</v>
       </c>
       <c r="H18" t="str">
-        <f>LEFT(J18,FIND(" ",J18) -1)</f>
+        <f t="shared" si="1"/>
         <v>Sterna</v>
       </c>
       <c r="I18" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J18," ",REPT(" ",LEN(J18))),LEN(J18)))</f>
+        <f t="shared" si="0"/>
         <v>paradisaea</v>
       </c>
       <c r="J18" t="s">
@@ -2365,11 +2360,11 @@
         <v>180</v>
       </c>
       <c r="H19" t="e">
-        <f>LEFT(J19,FIND(" ",J19) -1)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I19" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J19," ",REPT(" ",LEN(J19))),LEN(J19)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2394,11 +2389,11 @@
         <v>361</v>
       </c>
       <c r="H20" t="str">
-        <f>LEFT(J20,FIND(" ",J20) -1)</f>
+        <f t="shared" si="1"/>
         <v>Stercorarius</v>
       </c>
       <c r="I20" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J20," ",REPT(" ",LEN(J20))),LEN(J20)))</f>
+        <f t="shared" si="0"/>
         <v>pomarinus</v>
       </c>
       <c r="J20" s="44" t="s">
@@ -2426,11 +2421,11 @@
         <v>198</v>
       </c>
       <c r="H21" t="e">
-        <f>LEFT(J21,FIND(" ",J21) -1)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="I21" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J21," ",REPT(" ",LEN(J21))),LEN(J21)))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -2455,11 +2450,11 @@
         <v>198</v>
       </c>
       <c r="H22" t="str">
-        <f>LEFT(J22,FIND(" ",J22) -1)</f>
+        <f t="shared" si="1"/>
         <v>Ciconia</v>
       </c>
       <c r="I22" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J22," ",REPT(" ",LEN(J22))),LEN(J22)))</f>
+        <f t="shared" si="0"/>
         <v>maguari</v>
       </c>
       <c r="J22" s="44" t="s">
@@ -2487,11 +2482,11 @@
         <v>198</v>
       </c>
       <c r="H23" t="str">
-        <f>LEFT(J23,FIND(" ",J23) -1)</f>
+        <f t="shared" si="1"/>
         <v>Mycteria</v>
       </c>
       <c r="I23" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J23," ",REPT(" ",LEN(J23))),LEN(J23)))</f>
+        <f t="shared" si="0"/>
         <v>americana</v>
       </c>
       <c r="J23" s="44" t="s">
@@ -2676,11 +2671,11 @@
         <v>206</v>
       </c>
       <c r="H29" t="str">
-        <f>LEFT(J29,FIND(" ",J29) -1)</f>
+        <f t="shared" ref="H29:H66" si="2">LEFT(J29,FIND(" ",J29) -1)</f>
         <v>Chloroceryle</v>
       </c>
       <c r="I29" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J29," ",REPT(" ",LEN(J29))),LEN(J29)))</f>
+        <f t="shared" ref="I29:I66" si="3">TRIM(RIGHT(SUBSTITUTE(J29," ",REPT(" ",LEN(J29))),LEN(J29)))</f>
         <v>amazona</v>
       </c>
       <c r="J29" s="28" t="s">
@@ -2708,11 +2703,11 @@
         <v>206</v>
       </c>
       <c r="H30" t="str">
-        <f>LEFT(J30,FIND(" ",J30) -1)</f>
+        <f t="shared" si="2"/>
         <v>Megaceryle</v>
       </c>
       <c r="I30" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J30," ",REPT(" ",LEN(J30))),LEN(J30)))</f>
+        <f t="shared" si="3"/>
         <v>alcyon</v>
       </c>
       <c r="J30" t="s">
@@ -2740,11 +2735,11 @@
         <v>206</v>
       </c>
       <c r="H31" t="e">
-        <f>LEFT(J31,FIND(" ",J31) -1)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I31" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J31," ",REPT(" ",LEN(J31))),LEN(J31)))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2769,11 +2764,11 @@
         <v>206</v>
       </c>
       <c r="H32" t="e">
-        <f>LEFT(J32,FIND(" ",J32) -1)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I32" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J32," ",REPT(" ",LEN(J32))),LEN(J32)))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -2798,11 +2793,11 @@
         <v>354</v>
       </c>
       <c r="H33" t="str">
-        <f>LEFT(J33,FIND(" ",J33) -1)</f>
+        <f t="shared" si="2"/>
         <v>Baryphthengus</v>
       </c>
       <c r="I33" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J33," ",REPT(" ",LEN(J33))),LEN(J33)))</f>
+        <f t="shared" si="3"/>
         <v>martii</v>
       </c>
       <c r="J33" s="44" t="s">
@@ -2830,11 +2825,11 @@
         <v>26</v>
       </c>
       <c r="H34" t="str">
-        <f>LEFT(J34,FIND(" ",J34) -1)</f>
+        <f t="shared" si="2"/>
         <v>Coccyzus</v>
       </c>
       <c r="I34" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J34," ",REPT(" ",LEN(J34))),LEN(J34)))</f>
+        <f t="shared" si="3"/>
         <v>erythropthalmus</v>
       </c>
       <c r="J34" t="s">
@@ -2862,11 +2857,11 @@
         <v>26</v>
       </c>
       <c r="H35" t="str">
-        <f>LEFT(J35,FIND(" ",J35) -1)</f>
+        <f t="shared" si="2"/>
         <v>Crotophaga</v>
       </c>
       <c r="I35" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J35," ",REPT(" ",LEN(J35))),LEN(J35)))</f>
+        <f t="shared" si="3"/>
         <v>major</v>
       </c>
       <c r="J35" t="s">
@@ -2894,11 +2889,11 @@
         <v>26</v>
       </c>
       <c r="H36" t="str">
-        <f>LEFT(J36,FIND(" ",J36) -1)</f>
+        <f t="shared" si="2"/>
         <v>Crotophaga</v>
       </c>
       <c r="I36" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J36," ",REPT(" ",LEN(J36))),LEN(J36)))</f>
+        <f t="shared" si="3"/>
         <v>sulcirostris</v>
       </c>
       <c r="J36" t="s">
@@ -2926,11 +2921,11 @@
         <v>26</v>
       </c>
       <c r="H37" t="str">
-        <f>LEFT(J37,FIND(" ",J37) -1)</f>
+        <f t="shared" si="2"/>
         <v>Coccycua</v>
       </c>
       <c r="I37" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J37," ",REPT(" ",LEN(J37))),LEN(J37)))</f>
+        <f t="shared" si="3"/>
         <v>minuta</v>
       </c>
       <c r="J37" t="s">
@@ -2958,11 +2953,11 @@
         <v>26</v>
       </c>
       <c r="H38" t="str">
-        <f>LEFT(J38,FIND(" ",J38) -1)</f>
+        <f t="shared" si="2"/>
         <v>Piaya</v>
       </c>
       <c r="I38" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J38," ",REPT(" ",LEN(J38))),LEN(J38)))</f>
+        <f t="shared" si="3"/>
         <v>cayana</v>
       </c>
       <c r="J38" s="43" t="s">
@@ -2990,11 +2985,11 @@
         <v>353</v>
       </c>
       <c r="H39" t="str">
-        <f>LEFT(J39,FIND(" ",J39) -1)</f>
+        <f t="shared" si="2"/>
         <v>Eurypyga</v>
       </c>
       <c r="I39" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J39," ",REPT(" ",LEN(J39))),LEN(J39)))</f>
+        <f t="shared" si="3"/>
         <v>helias</v>
       </c>
       <c r="J39" s="44" t="s">
@@ -3022,11 +3017,11 @@
         <v>42</v>
       </c>
       <c r="H40" t="str">
-        <f>LEFT(J40,FIND(" ",J40) -1)</f>
+        <f t="shared" si="2"/>
         <v>Falco</v>
       </c>
       <c r="I40" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J40," ",REPT(" ",LEN(J40))),LEN(J40)))</f>
+        <f t="shared" si="3"/>
         <v>sparverius</v>
       </c>
       <c r="J40" t="s">
@@ -3054,11 +3049,11 @@
         <v>42</v>
       </c>
       <c r="H41" t="str">
-        <f>LEFT(J41,FIND(" ",J41) -1)</f>
+        <f t="shared" si="2"/>
         <v>Micrastur</v>
       </c>
       <c r="I41" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J41," ",REPT(" ",LEN(J41))),LEN(J41)))</f>
+        <f t="shared" si="3"/>
         <v>ruficollis</v>
       </c>
       <c r="J41" t="s">
@@ -3086,11 +3081,11 @@
         <v>42</v>
       </c>
       <c r="H42" t="str">
-        <f>LEFT(J42,FIND(" ",J42) -1)</f>
+        <f t="shared" si="2"/>
         <v>Falco</v>
       </c>
       <c r="I42" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J42," ",REPT(" ",LEN(J42))),LEN(J42)))</f>
+        <f t="shared" si="3"/>
         <v>rufigularis</v>
       </c>
       <c r="J42" t="s">
@@ -3118,11 +3113,11 @@
         <v>42</v>
       </c>
       <c r="H43" t="str">
-        <f>LEFT(J43,FIND(" ",J43) -1)</f>
+        <f t="shared" si="2"/>
         <v>Herpetotheres</v>
       </c>
       <c r="I43" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J43," ",REPT(" ",LEN(J43))),LEN(J43)))</f>
+        <f t="shared" si="3"/>
         <v>cachinnans</v>
       </c>
       <c r="J43" t="s">
@@ -3150,11 +3145,11 @@
         <v>42</v>
       </c>
       <c r="H44" t="str">
-        <f>LEFT(J44,FIND(" ",J44) -1)</f>
+        <f t="shared" si="2"/>
         <v>Falco</v>
       </c>
       <c r="I44" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J44," ",REPT(" ",LEN(J44))),LEN(J44)))</f>
+        <f t="shared" si="3"/>
         <v>peregrinus</v>
       </c>
       <c r="J44" s="43" t="s">
@@ -3182,11 +3177,11 @@
         <v>329</v>
       </c>
       <c r="H45" t="str">
-        <f>LEFT(J45,FIND(" ",J45) -1)</f>
+        <f t="shared" si="2"/>
         <v>Chamaepetes</v>
       </c>
       <c r="I45" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J45," ",REPT(" ",LEN(J45))),LEN(J45)))</f>
+        <f t="shared" si="3"/>
         <v>unicolor</v>
       </c>
       <c r="J45" t="s">
@@ -3214,11 +3209,11 @@
         <v>220</v>
       </c>
       <c r="H46" t="e">
-        <f>LEFT(J46,FIND(" ",J46) -1)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I46" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J46," ",REPT(" ",LEN(J46))),LEN(J46)))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3243,11 +3238,11 @@
         <v>62</v>
       </c>
       <c r="H47" t="str">
-        <f>LEFT(J47,FIND(" ",J47) -1)</f>
+        <f t="shared" si="2"/>
         <v>  Fulica</v>
       </c>
       <c r="I47" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J47," ",REPT(" ",LEN(J47))),LEN(J47)))</f>
+        <f t="shared" si="3"/>
         <v>americana</v>
       </c>
       <c r="J47" s="41" t="s">
@@ -3275,11 +3270,11 @@
         <v>62</v>
       </c>
       <c r="H48" t="str">
-        <f>LEFT(J48,FIND(" ",J48) -1)</f>
+        <f t="shared" si="2"/>
         <v>  Porphyrio</v>
       </c>
       <c r="I48" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J48," ",REPT(" ",LEN(J48))),LEN(J48)))</f>
+        <f t="shared" si="3"/>
         <v>martinicus</v>
       </c>
       <c r="J48" t="s">
@@ -3307,11 +3302,11 @@
         <v>69</v>
       </c>
       <c r="H49" t="e">
-        <f>LEFT(J49,FIND(" ",J49) -1)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I49" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J49," ",REPT(" ",LEN(J49))),LEN(J49)))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3336,11 +3331,11 @@
         <v>62</v>
       </c>
       <c r="H50" t="str">
-        <f>LEFT(J50,FIND(" ",J50) -1)</f>
+        <f t="shared" si="2"/>
         <v>Porzana</v>
       </c>
       <c r="I50" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J50," ",REPT(" ",LEN(J50))),LEN(J50)))</f>
+        <f t="shared" si="3"/>
         <v>carolina</v>
       </c>
       <c r="J50" s="44" t="s">
@@ -3368,11 +3363,11 @@
         <v>59</v>
       </c>
       <c r="H51" t="str">
-        <f>LEFT(J51,FIND(" ",J51) -1)</f>
+        <f t="shared" si="2"/>
         <v>Heliornis</v>
       </c>
       <c r="I51" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J51," ",REPT(" ",LEN(J51))),LEN(J51)))</f>
+        <f t="shared" si="3"/>
         <v>fulica</v>
       </c>
       <c r="J51" s="44" t="s">
@@ -3400,11 +3395,11 @@
         <v>227</v>
       </c>
       <c r="H52" t="str">
-        <f>LEFT(J52,FIND(" ",J52) -1)</f>
+        <f t="shared" si="2"/>
         <v>cinclus</v>
       </c>
       <c r="I52" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J52," ",REPT(" ",LEN(J52))),LEN(J52)))</f>
+        <f t="shared" si="3"/>
         <v>mexicanus</v>
       </c>
       <c r="J52" s="10" t="s">
@@ -3432,11 +3427,11 @@
         <v>322</v>
       </c>
       <c r="H53" t="str">
-        <f>LEFT(J53,FIND(" ",J53) -1)</f>
+        <f t="shared" si="2"/>
         <v>Coereba</v>
       </c>
       <c r="I53" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J53," ",REPT(" ",LEN(J53))),LEN(J53)))</f>
+        <f t="shared" si="3"/>
         <v>flaveola</v>
       </c>
       <c r="J53" t="s">
@@ -3464,11 +3459,11 @@
         <v>282</v>
       </c>
       <c r="H54" t="str">
-        <f>LEFT(J54,FIND(" ",J54) -1)</f>
+        <f t="shared" si="2"/>
         <v> Pittasoma</v>
       </c>
       <c r="I54" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J54," ",REPT(" ",LEN(J54))),LEN(J54)))</f>
+        <f t="shared" si="3"/>
         <v>michleri</v>
       </c>
       <c r="J54" t="s">
@@ -3496,11 +3491,11 @@
         <v>227</v>
       </c>
       <c r="H55" t="str">
-        <f>LEFT(J55,FIND(" ",J55) -1)</f>
+        <f t="shared" si="2"/>
         <v>Caryothraustes</v>
       </c>
       <c r="I55" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J55," ",REPT(" ",LEN(J55))),LEN(J55)))</f>
+        <f t="shared" si="3"/>
         <v>poliogaster</v>
       </c>
       <c r="J55" t="s">
@@ -3528,11 +3523,11 @@
         <v>74</v>
       </c>
       <c r="H56" t="str">
-        <f>LEFT(J56,FIND(" ",J56) -1)</f>
+        <f t="shared" si="2"/>
         <v> Eudocimus</v>
       </c>
       <c r="I56" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J56," ",REPT(" ",LEN(J56))),LEN(J56)))</f>
+        <f t="shared" si="3"/>
         <v>albus</v>
       </c>
       <c r="J56" t="s">
@@ -3560,11 +3555,11 @@
         <v>83</v>
       </c>
       <c r="H57" t="str">
-        <f>LEFT(J57,FIND(" ",J57) -1)</f>
+        <f t="shared" si="2"/>
         <v> Nycticorax</v>
       </c>
       <c r="I57" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J57," ",REPT(" ",LEN(J57))),LEN(J57)))</f>
+        <f t="shared" si="3"/>
         <v>nycticorax</v>
       </c>
       <c r="J57" t="s">
@@ -3592,11 +3587,11 @@
         <v>80</v>
       </c>
       <c r="H58" t="e">
-        <f>LEFT(J58,FIND(" ",J58) -1)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I58" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J58," ",REPT(" ",LEN(J58))),LEN(J58)))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3621,11 +3616,11 @@
         <v>83</v>
       </c>
       <c r="H59" t="e">
-        <f>LEFT(J59,FIND(" ",J59) -1)</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
       <c r="I59" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J59," ",REPT(" ",LEN(J59))),LEN(J59)))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -3650,11 +3645,11 @@
         <v>74</v>
       </c>
       <c r="H60" t="str">
-        <f>LEFT(J60,FIND(" ",J60) -1)</f>
+        <f t="shared" si="2"/>
         <v>Platalea</v>
       </c>
       <c r="I60" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J60," ",REPT(" ",LEN(J60))),LEN(J60)))</f>
+        <f t="shared" si="3"/>
         <v>ajaja</v>
       </c>
       <c r="J60" s="44" t="s">
@@ -3682,11 +3677,11 @@
         <v>83</v>
       </c>
       <c r="H61" t="str">
-        <f>LEFT(J61,FIND(" ",J61) -1)</f>
+        <f t="shared" si="2"/>
         <v>Egretta</v>
       </c>
       <c r="I61" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J61," ",REPT(" ",LEN(J61))),LEN(J61)))</f>
+        <f t="shared" si="3"/>
         <v>thula</v>
       </c>
       <c r="J61" s="44" t="s">
@@ -3714,11 +3709,11 @@
         <v>115</v>
       </c>
       <c r="H62" t="str">
-        <f>LEFT(J62,FIND(" ",J62) -1)</f>
+        <f t="shared" si="2"/>
         <v>Fregata</v>
       </c>
       <c r="I62" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J62," ",REPT(" ",LEN(J62))),LEN(J62)))</f>
+        <f t="shared" si="3"/>
         <v>magnificens</v>
       </c>
       <c r="J62" s="44" t="s">
@@ -3746,11 +3741,11 @@
         <v>120</v>
       </c>
       <c r="H63" t="str">
-        <f>LEFT(J63,FIND(" ",J63) -1)</f>
+        <f t="shared" si="2"/>
         <v>Phalacrocorax</v>
       </c>
       <c r="I63" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J63," ",REPT(" ",LEN(J63))),LEN(J63)))</f>
+        <f t="shared" si="3"/>
         <v>brasilianus</v>
       </c>
       <c r="J63" s="44" t="s">
@@ -3778,11 +3773,11 @@
         <v>111</v>
       </c>
       <c r="H64" t="str">
-        <f>LEFT(J64,FIND(" ",J64) -1)</f>
+        <f t="shared" si="2"/>
         <v>  Anhinga</v>
       </c>
       <c r="I64" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J64," ",REPT(" ",LEN(J64))),LEN(J64)))</f>
+        <f t="shared" si="3"/>
         <v>anhinga</v>
       </c>
       <c r="J64" t="s">
@@ -3810,11 +3805,11 @@
         <v>281</v>
       </c>
       <c r="H65" t="str">
-        <f>LEFT(J65,FIND(" ",J65) -1)</f>
+        <f t="shared" si="2"/>
         <v>Phaethon</v>
       </c>
       <c r="I65" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J65," ",REPT(" ",LEN(J65))),LEN(J65)))</f>
+        <f t="shared" si="3"/>
         <v>aethereus</v>
       </c>
       <c r="J65" s="44" t="s">
@@ -3842,11 +3837,11 @@
         <v>265</v>
       </c>
       <c r="H66" t="str">
-        <f>LEFT(J66,FIND(" ",J66) -1)</f>
+        <f t="shared" si="2"/>
         <v> Ramphastos</v>
       </c>
       <c r="I66" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J66," ",REPT(" ",LEN(J66))),LEN(J66)))</f>
+        <f t="shared" si="3"/>
         <v>ambiguus</v>
       </c>
       <c r="J66" t="s">
@@ -3904,11 +3899,11 @@
         <v>276</v>
       </c>
       <c r="H68" t="str">
-        <f>LEFT(J68,FIND(" ",J68) -1)</f>
+        <f t="shared" ref="H68:H78" si="4">LEFT(J68,FIND(" ",J68) -1)</f>
         <v>Nystalus</v>
       </c>
       <c r="I68" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J68," ",REPT(" ",LEN(J68))),LEN(J68)))</f>
+        <f t="shared" ref="I68:I91" si="5">TRIM(RIGHT(SUBSTITUTE(J68," ",REPT(" ",LEN(J68))),LEN(J68)))</f>
         <v>radiatus</v>
       </c>
       <c r="J68" t="s">
@@ -3936,11 +3931,11 @@
         <v>272</v>
       </c>
       <c r="H69" t="e">
-        <f>LEFT(J69,FIND(" ",J69) -1)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="I69" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J69," ",REPT(" ",LEN(J69))),LEN(J69)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -3965,11 +3960,11 @@
         <v>265</v>
       </c>
       <c r="H70" t="str">
-        <f>LEFT(J70,FIND(" ",J70) -1)</f>
+        <f t="shared" si="4"/>
         <v>Eubucco</v>
       </c>
       <c r="I70" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J70," ",REPT(" ",LEN(J70))),LEN(J70)))</f>
+        <f t="shared" si="5"/>
         <v>bourcierii</v>
       </c>
       <c r="J70" s="44" t="s">
@@ -3997,11 +3992,11 @@
         <v>89</v>
       </c>
       <c r="H71" t="e">
-        <f>LEFT(J71,FIND(" ",J71) -1)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="I71" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J71," ",REPT(" ",LEN(J71))),LEN(J71)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4026,11 +4021,11 @@
         <v>89</v>
       </c>
       <c r="H72" t="str">
-        <f>LEFT(J72,FIND(" ",J72) -1)</f>
+        <f t="shared" si="4"/>
         <v>Podilymbus</v>
       </c>
       <c r="I72" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J72," ",REPT(" ",LEN(J72))),LEN(J72)))</f>
+        <f t="shared" si="5"/>
         <v>podiceps</v>
       </c>
       <c r="J72" s="44" t="s">
@@ -4058,11 +4053,11 @@
         <v>92</v>
       </c>
       <c r="H73" t="str">
-        <f>LEFT(J73,FIND(" ",J73) -1)</f>
+        <f t="shared" si="4"/>
         <v>Hydrobates</v>
       </c>
       <c r="I73" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J73," ",REPT(" ",LEN(J73))),LEN(J73)))</f>
+        <f t="shared" si="5"/>
         <v>castro</v>
       </c>
       <c r="J73" s="44" t="s">
@@ -4090,11 +4085,11 @@
         <v>98</v>
       </c>
       <c r="H74" t="e">
-        <f>LEFT(J74,FIND(" ",J74) -1)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="I74" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J74," ",REPT(" ",LEN(J74))),LEN(J74)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4119,11 +4114,11 @@
         <v>98</v>
       </c>
       <c r="H75" t="e">
-        <f>LEFT(J75,FIND(" ",J75) -1)</f>
+        <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
       <c r="I75" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J75," ",REPT(" ",LEN(J75))),LEN(J75)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4148,11 +4143,11 @@
         <v>98</v>
       </c>
       <c r="H76" t="str">
-        <f>LEFT(J76,FIND(" ",J76) -1)</f>
+        <f t="shared" si="4"/>
         <v>Amazona</v>
       </c>
       <c r="I76" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J76," ",REPT(" ",LEN(J76))),LEN(J76)))</f>
+        <f t="shared" si="5"/>
         <v>farinosa</v>
       </c>
       <c r="J76" s="44" t="s">
@@ -4180,11 +4175,11 @@
         <v>98</v>
       </c>
       <c r="H77" t="str">
-        <f>LEFT(J77,FIND(" ",J77) -1)</f>
+        <f t="shared" si="4"/>
         <v>Brotogeris</v>
       </c>
       <c r="I77" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J77," ",REPT(" ",LEN(J77))),LEN(J77)))</f>
+        <f t="shared" si="5"/>
         <v>jugularis</v>
       </c>
       <c r="J77" s="44" t="s">
@@ -4212,11 +4207,11 @@
         <v>98</v>
       </c>
       <c r="H78" t="str">
-        <f>LEFT(J78,FIND(" ",J78) -1)</f>
+        <f t="shared" si="4"/>
         <v>Amazona</v>
       </c>
       <c r="I78" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J78," ",REPT(" ",LEN(J78))),LEN(J78)))</f>
+        <f t="shared" si="5"/>
         <v>autumnalis</v>
       </c>
       <c r="J78" s="44" t="s">
@@ -4247,7 +4242,7 @@
         <v>325</v>
       </c>
       <c r="I79" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J79," ",REPT(" ",LEN(J79))),LEN(J79)))</f>
+        <f t="shared" si="5"/>
         <v>alba</v>
       </c>
       <c r="J79" t="s">
@@ -4275,11 +4270,11 @@
         <v>248</v>
       </c>
       <c r="H80" t="str">
-        <f>LEFT(J80,FIND(" ",J80) -1)</f>
+        <f t="shared" ref="H80:H91" si="6">LEFT(J80,FIND(" ",J80) -1)</f>
         <v> Ciccaba</v>
       </c>
       <c r="I80" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J80," ",REPT(" ",LEN(J80))),LEN(J80)))</f>
+        <f t="shared" si="5"/>
         <v>nigrolineata</v>
       </c>
       <c r="J80" t="s">
@@ -4307,11 +4302,11 @@
         <v>248</v>
       </c>
       <c r="H81" t="e">
-        <f>LEFT(J81,FIND(" ",J81) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I81" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J81," ",REPT(" ",LEN(J81))),LEN(J81)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4336,11 +4331,11 @@
         <v>248</v>
       </c>
       <c r="H82" t="e">
-        <f>LEFT(J82,FIND(" ",J82) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I82" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J82," ",REPT(" ",LEN(J82))),LEN(J82)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4365,11 +4360,11 @@
         <v>248</v>
       </c>
       <c r="H83" t="str">
-        <f>LEFT(J83,FIND(" ",J83) -1)</f>
+        <f t="shared" si="6"/>
         <v>Pulsatrix</v>
       </c>
       <c r="I83" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J83," ",REPT(" ",LEN(J83))),LEN(J83)))</f>
+        <f t="shared" si="5"/>
         <v>perspicillata</v>
       </c>
       <c r="J83" s="44" t="s">
@@ -4397,11 +4392,11 @@
         <v>124</v>
       </c>
       <c r="H84" t="e">
-        <f>LEFT(J84,FIND(" ",J84) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I84" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J84," ",REPT(" ",LEN(J84))),LEN(J84)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4426,11 +4421,11 @@
         <v>124</v>
       </c>
       <c r="H85" t="str">
-        <f>LEFT(J85,FIND(" ",J85) -1)</f>
+        <f t="shared" si="6"/>
         <v>Sula</v>
       </c>
       <c r="I85" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J85," ",REPT(" ",LEN(J85))),LEN(J85)))</f>
+        <f t="shared" si="5"/>
         <v>sula</v>
       </c>
       <c r="J85" s="44" t="s">
@@ -4458,11 +4453,11 @@
         <v>129</v>
       </c>
       <c r="H86" t="e">
-        <f>LEFT(J86,FIND(" ",J86) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I86" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J86," ",REPT(" ",LEN(J86))),LEN(J86)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4487,11 +4482,11 @@
         <v>239</v>
       </c>
       <c r="H87" t="str">
-        <f>LEFT(J87,FIND(" ",J87) -1)</f>
+        <f t="shared" si="6"/>
         <v> Trogon</v>
       </c>
       <c r="I87" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J87," ",REPT(" ",LEN(J87))),LEN(J87)))</f>
+        <f t="shared" si="5"/>
         <v>melanurus</v>
       </c>
       <c r="J87" t="s">
@@ -4519,11 +4514,11 @@
         <v>239</v>
       </c>
       <c r="H88" t="str">
-        <f>LEFT(J88,FIND(" ",J88) -1)</f>
+        <f t="shared" si="6"/>
         <v>Trogon</v>
       </c>
       <c r="I88" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J88," ",REPT(" ",LEN(J88))),LEN(J88)))</f>
+        <f t="shared" si="5"/>
         <v>rufus</v>
       </c>
       <c r="J88" t="s">
@@ -4551,11 +4546,11 @@
         <v>239</v>
       </c>
       <c r="H89" t="e">
-        <f>LEFT(J89,FIND(" ",J89) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I89" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J89," ",REPT(" ",LEN(J89))),LEN(J89)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4580,11 +4575,11 @@
         <v>239</v>
       </c>
       <c r="H90" t="e">
-        <f>LEFT(J90,FIND(" ",J90) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I90" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J90," ",REPT(" ",LEN(J90))),LEN(J90)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
@@ -4609,11 +4604,11 @@
         <v>239</v>
       </c>
       <c r="H91" t="e">
-        <f>LEFT(J91,FIND(" ",J91) -1)</f>
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
       <c r="I91" t="str">
-        <f>TRIM(RIGHT(SUBSTITUTE(J91," ",REPT(" ",LEN(J91))),LEN(J91)))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
     </row>

--- a/Data/Ontology Data.xlsx
+++ b/Data/Ontology Data.xlsx
@@ -1832,19 +1832,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="M57" sqref="M57"/>
+    <sheetView tabSelected="1" topLeftCell="C72" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="62.28515625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="58" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="81" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="57.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.85546875" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.42578125" bestFit="1" customWidth="1"/>
@@ -3787,11 +3787,11 @@
         <v>92</v>
       </c>
       <c r="H61" t="str">
-        <f t="shared" ref="H48:H64" si="4">LEFT(J61,FIND(" ",J61) -1)</f>
+        <f t="shared" ref="H61:H64" si="4">LEFT(J61,FIND(" ",J61) -1)</f>
         <v>Hydrobates</v>
       </c>
       <c r="I61" t="str">
-        <f t="shared" ref="I47:I78" si="5">TRIM(RIGHT(SUBSTITUTE(J61," ",REPT(" ",LEN(J61))),LEN(J61)))</f>
+        <f t="shared" ref="I61:I64" si="5">TRIM(RIGHT(SUBSTITUTE(J61," ",REPT(" ",LEN(J61))),LEN(J61)))</f>
         <v>castro</v>
       </c>
       <c r="J61" s="44" t="s">
